--- a/schema/CFM5.3.2/doc/CFM5.3_Metadata.xlsx
+++ b/schema/CFM5.3.2/doc/CFM5.3_Metadata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marshallst\Dropbox\CFM\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77CEA95-B2E8-4387-BB73-FBCB77AFEBFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07179A-D47A-DE43-B859-8EF766EBE16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="47940" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFM5.3_Metadata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhm+7mmvvJzPA1/BfXhdBtlTzHg2Q=="/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7051" uniqueCount="2338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7053" uniqueCount="2338">
   <si>
     <t>CFM5.3 Fault Object Name</t>
   </si>
@@ -7576,45 +7576,45 @@
   <dimension ref="A1:AT1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J436" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A446" sqref="A446"/>
+      <selection pane="bottomRight" activeCell="M308" sqref="M308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="65" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="39.44140625" customWidth="1"/>
+    <col min="12" max="12" width="39.5" customWidth="1"/>
     <col min="13" max="13" width="7.33203125" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
     <col min="19" max="19" width="7.6640625" customWidth="1"/>
-    <col min="20" max="20" width="11.5546875" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
     <col min="21" max="21" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" customWidth="1"/>
     <col min="23" max="24" width="20.6640625" customWidth="1"/>
     <col min="25" max="25" width="43.6640625" customWidth="1"/>
-    <col min="26" max="26" width="130.44140625" customWidth="1"/>
-    <col min="27" max="27" width="36.5546875" customWidth="1"/>
+    <col min="26" max="26" width="130.5" customWidth="1"/>
+    <col min="27" max="27" width="36.5" customWidth="1"/>
     <col min="28" max="28" width="64.33203125" customWidth="1"/>
-    <col min="29" max="46" width="8.88671875" customWidth="1"/>
+    <col min="29" max="46" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7714,7 +7714,7 @@
       <c r="AS1" s="4"/>
       <c r="AT1" s="4"/>
     </row>
-    <row r="2" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -7764,7 +7764,7 @@
       <c r="AS2" s="13"/>
       <c r="AT2" s="13"/>
     </row>
-    <row r="3" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
@@ -7862,7 +7862,7 @@
       <c r="AS3" s="4"/>
       <c r="AT3" s="4"/>
     </row>
-    <row r="4" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>38</v>
       </c>
@@ -7958,7 +7958,7 @@
       <c r="AS4" s="4"/>
       <c r="AT4" s="4"/>
     </row>
-    <row r="5" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
     </row>
-    <row r="6" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>51</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
     </row>
-    <row r="7" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>54</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
     </row>
-    <row r="8" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>58</v>
       </c>
@@ -8348,7 +8348,7 @@
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
     </row>
-    <row r="9" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>62</v>
       </c>
@@ -8446,7 +8446,7 @@
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
     </row>
-    <row r="10" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -8544,7 +8544,7 @@
       <c r="AS10" s="4"/>
       <c r="AT10" s="4"/>
     </row>
-    <row r="11" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>69</v>
       </c>
@@ -8642,7 +8642,7 @@
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
     </row>
-    <row r="12" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>77</v>
       </c>
@@ -8738,7 +8738,7 @@
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
     </row>
-    <row r="13" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>80</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
     </row>
-    <row r="14" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>87</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
     </row>
-    <row r="15" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>94</v>
       </c>
@@ -9030,7 +9030,7 @@
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
     </row>
-    <row r="16" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>99</v>
       </c>
@@ -9124,7 +9124,7 @@
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
     </row>
-    <row r="17" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>106</v>
       </c>
@@ -9222,7 +9222,7 @@
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
     </row>
-    <row r="18" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>113</v>
       </c>
@@ -9320,7 +9320,7 @@
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
     </row>
-    <row r="19" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>122</v>
       </c>
@@ -9418,7 +9418,7 @@
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
     </row>
-    <row r="20" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>130</v>
       </c>
@@ -9516,7 +9516,7 @@
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
     </row>
-    <row r="21" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>134</v>
       </c>
@@ -9614,7 +9614,7 @@
       <c r="AS21" s="4"/>
       <c r="AT21" s="4"/>
     </row>
-    <row r="22" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>137</v>
       </c>
@@ -9710,7 +9710,7 @@
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
     </row>
-    <row r="23" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>140</v>
       </c>
@@ -9806,7 +9806,7 @@
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
     </row>
-    <row r="24" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>143</v>
       </c>
@@ -9902,7 +9902,7 @@
       <c r="AS24" s="4"/>
       <c r="AT24" s="4"/>
     </row>
-    <row r="25" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>149</v>
       </c>
@@ -9998,7 +9998,7 @@
       <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
     </row>
-    <row r="26" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>153</v>
       </c>
@@ -10094,7 +10094,7 @@
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
     </row>
-    <row r="27" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
         <v>160</v>
       </c>
@@ -10190,7 +10190,7 @@
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
     </row>
-    <row r="28" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>163</v>
       </c>
@@ -10286,7 +10286,7 @@
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
     </row>
-    <row r="29" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>167</v>
       </c>
@@ -10382,7 +10382,7 @@
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
     </row>
-    <row r="30" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>170</v>
       </c>
@@ -10478,7 +10478,7 @@
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
     </row>
-    <row r="31" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>173</v>
       </c>
@@ -10574,7 +10574,7 @@
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
     </row>
-    <row r="32" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>176</v>
       </c>
@@ -10670,7 +10670,7 @@
       <c r="AS32" s="4"/>
       <c r="AT32" s="4"/>
     </row>
-    <row r="33" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>182</v>
       </c>
@@ -10766,7 +10766,7 @@
       <c r="AS33" s="4"/>
       <c r="AT33" s="4"/>
     </row>
-    <row r="34" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>186</v>
       </c>
@@ -10862,7 +10862,7 @@
       <c r="AS34" s="4"/>
       <c r="AT34" s="4"/>
     </row>
-    <row r="35" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>194</v>
       </c>
@@ -10958,7 +10958,7 @@
       <c r="AS35" s="4"/>
       <c r="AT35" s="4"/>
     </row>
-    <row r="36" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>201</v>
       </c>
@@ -11054,7 +11054,7 @@
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
     </row>
-    <row r="37" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>204</v>
       </c>
@@ -11150,7 +11150,7 @@
       <c r="AS37" s="4"/>
       <c r="AT37" s="4"/>
     </row>
-    <row r="38" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
         <v>209</v>
       </c>
@@ -11248,7 +11248,7 @@
       <c r="AS38" s="4"/>
       <c r="AT38" s="4"/>
     </row>
-    <row r="39" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
         <v>212</v>
       </c>
@@ -11346,7 +11346,7 @@
       <c r="AS39" s="4"/>
       <c r="AT39" s="4"/>
     </row>
-    <row r="40" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>216</v>
       </c>
@@ -11442,7 +11442,7 @@
       <c r="AS40" s="4"/>
       <c r="AT40" s="4"/>
     </row>
-    <row r="41" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>222</v>
       </c>
@@ -11536,7 +11536,7 @@
       <c r="AS41" s="4"/>
       <c r="AT41" s="4"/>
     </row>
-    <row r="42" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>226</v>
       </c>
@@ -11586,7 +11586,7 @@
       <c r="AS42" s="13"/>
       <c r="AT42" s="13"/>
     </row>
-    <row r="43" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
         <v>227</v>
       </c>
@@ -11682,7 +11682,7 @@
       <c r="AS43" s="4"/>
       <c r="AT43" s="4"/>
     </row>
-    <row r="44" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
         <v>236</v>
       </c>
@@ -11778,7 +11778,7 @@
       <c r="AS44" s="4"/>
       <c r="AT44" s="4"/>
     </row>
-    <row r="45" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
         <v>240</v>
       </c>
@@ -11876,7 +11876,7 @@
       <c r="AS45" s="4"/>
       <c r="AT45" s="4"/>
     </row>
-    <row r="46" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
         <v>250</v>
       </c>
@@ -11974,7 +11974,7 @@
       <c r="AS46" s="4"/>
       <c r="AT46" s="4"/>
     </row>
-    <row r="47" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>254</v>
       </c>
@@ -12072,7 +12072,7 @@
       <c r="AS47" s="4"/>
       <c r="AT47" s="4"/>
     </row>
-    <row r="48" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
         <v>260</v>
       </c>
@@ -12170,7 +12170,7 @@
       <c r="AS48" s="4"/>
       <c r="AT48" s="4"/>
     </row>
-    <row r="49" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
         <v>263</v>
       </c>
@@ -12264,7 +12264,7 @@
       <c r="AS49" s="4"/>
       <c r="AT49" s="4"/>
     </row>
-    <row r="50" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
         <v>271</v>
       </c>
@@ -12360,7 +12360,7 @@
       <c r="AS50" s="4"/>
       <c r="AT50" s="4"/>
     </row>
-    <row r="51" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
         <v>281</v>
       </c>
@@ -12460,7 +12460,7 @@
       <c r="AS51" s="4"/>
       <c r="AT51" s="4"/>
     </row>
-    <row r="52" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
         <v>288</v>
       </c>
@@ -12558,7 +12558,7 @@
       <c r="AS52" s="4"/>
       <c r="AT52" s="4"/>
     </row>
-    <row r="53" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>294</v>
       </c>
@@ -12656,7 +12656,7 @@
       <c r="AS53" s="4"/>
       <c r="AT53" s="4"/>
     </row>
-    <row r="54" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>300</v>
       </c>
@@ -12706,7 +12706,7 @@
       <c r="AS54" s="13"/>
       <c r="AT54" s="13"/>
     </row>
-    <row r="55" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
         <v>301</v>
       </c>
@@ -12804,7 +12804,7 @@
       <c r="AS55" s="4"/>
       <c r="AT55" s="4"/>
     </row>
-    <row r="56" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
         <v>310</v>
       </c>
@@ -12902,7 +12902,7 @@
       <c r="AS56" s="4"/>
       <c r="AT56" s="4"/>
     </row>
-    <row r="57" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
         <v>313</v>
       </c>
@@ -13000,7 +13000,7 @@
       <c r="AS57" s="4"/>
       <c r="AT57" s="4"/>
     </row>
-    <row r="58" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14" t="s">
         <v>316</v>
       </c>
@@ -13098,7 +13098,7 @@
       <c r="AS58" s="4"/>
       <c r="AT58" s="4"/>
     </row>
-    <row r="59" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
         <v>319</v>
       </c>
@@ -13196,7 +13196,7 @@
       <c r="AS59" s="4"/>
       <c r="AT59" s="4"/>
     </row>
-    <row r="60" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="14" t="s">
         <v>324</v>
       </c>
@@ -13294,7 +13294,7 @@
       <c r="AS60" s="4"/>
       <c r="AT60" s="4"/>
     </row>
-    <row r="61" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14" t="s">
         <v>331</v>
       </c>
@@ -13392,7 +13392,7 @@
       <c r="AS61" s="4"/>
       <c r="AT61" s="4"/>
     </row>
-    <row r="62" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
         <v>334</v>
       </c>
@@ -13490,7 +13490,7 @@
       <c r="AS62" s="4"/>
       <c r="AT62" s="4"/>
     </row>
-    <row r="63" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14" t="s">
         <v>337</v>
       </c>
@@ -13588,7 +13588,7 @@
       <c r="AS63" s="4"/>
       <c r="AT63" s="4"/>
     </row>
-    <row r="64" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
         <v>340</v>
       </c>
@@ -13686,7 +13686,7 @@
       <c r="AS64" s="4"/>
       <c r="AT64" s="4"/>
     </row>
-    <row r="65" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="14" t="s">
         <v>345</v>
       </c>
@@ -13784,7 +13784,7 @@
       <c r="AS65" s="4"/>
       <c r="AT65" s="4"/>
     </row>
-    <row r="66" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14" t="s">
         <v>353</v>
       </c>
@@ -13882,7 +13882,7 @@
       <c r="AS66" s="4"/>
       <c r="AT66" s="4"/>
     </row>
-    <row r="67" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="14" t="s">
         <v>358</v>
       </c>
@@ -13980,7 +13980,7 @@
       <c r="AS67" s="4"/>
       <c r="AT67" s="4"/>
     </row>
-    <row r="68" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="14" t="s">
         <v>363</v>
       </c>
@@ -14078,7 +14078,7 @@
       <c r="AS68" s="4"/>
       <c r="AT68" s="4"/>
     </row>
-    <row r="69" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="14" t="s">
         <v>368</v>
       </c>
@@ -14176,7 +14176,7 @@
       <c r="AS69" s="4"/>
       <c r="AT69" s="4"/>
     </row>
-    <row r="70" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="14" t="s">
         <v>370</v>
       </c>
@@ -14274,7 +14274,7 @@
       <c r="AS70" s="4"/>
       <c r="AT70" s="4"/>
     </row>
-    <row r="71" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14" t="s">
         <v>374</v>
       </c>
@@ -14372,7 +14372,7 @@
       <c r="AS71" s="4"/>
       <c r="AT71" s="4"/>
     </row>
-    <row r="72" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14" t="s">
         <v>378</v>
       </c>
@@ -14470,7 +14470,7 @@
       <c r="AS72" s="4"/>
       <c r="AT72" s="4"/>
     </row>
-    <row r="73" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14" t="s">
         <v>385</v>
       </c>
@@ -14568,7 +14568,7 @@
       <c r="AS73" s="4"/>
       <c r="AT73" s="4"/>
     </row>
-    <row r="74" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="14" t="s">
         <v>389</v>
       </c>
@@ -14664,7 +14664,7 @@
       <c r="AS74" s="4"/>
       <c r="AT74" s="4"/>
     </row>
-    <row r="75" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14" t="s">
         <v>393</v>
       </c>
@@ -14760,7 +14760,7 @@
       <c r="AS75" s="4"/>
       <c r="AT75" s="4"/>
     </row>
-    <row r="76" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="14" t="s">
         <v>396</v>
       </c>
@@ -14858,7 +14858,7 @@
       <c r="AS76" s="4"/>
       <c r="AT76" s="4"/>
     </row>
-    <row r="77" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14" t="s">
         <v>401</v>
       </c>
@@ -14956,7 +14956,7 @@
       <c r="AS77" s="4"/>
       <c r="AT77" s="4"/>
     </row>
-    <row r="78" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="14" t="s">
         <v>407</v>
       </c>
@@ -15052,7 +15052,7 @@
       <c r="AS78" s="4"/>
       <c r="AT78" s="4"/>
     </row>
-    <row r="79" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="14" t="s">
         <v>411</v>
       </c>
@@ -15152,7 +15152,7 @@
       <c r="AS79" s="4"/>
       <c r="AT79" s="4"/>
     </row>
-    <row r="80" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="14" t="s">
         <v>415</v>
       </c>
@@ -15250,7 +15250,7 @@
       <c r="AS80" s="4"/>
       <c r="AT80" s="4"/>
     </row>
-    <row r="81" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="14" t="s">
         <v>419</v>
       </c>
@@ -15348,7 +15348,7 @@
       <c r="AS81" s="4"/>
       <c r="AT81" s="4"/>
     </row>
-    <row r="82" spans="1:46" s="57" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" s="57" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="52" t="s">
         <v>2324</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14" t="s">
         <v>425</v>
       </c>
@@ -15522,7 +15522,7 @@
       <c r="AS83" s="4"/>
       <c r="AT83" s="4"/>
     </row>
-    <row r="84" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="14" t="s">
         <v>433</v>
       </c>
@@ -15616,7 +15616,7 @@
       <c r="AS84" s="4"/>
       <c r="AT84" s="4"/>
     </row>
-    <row r="85" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="14" t="s">
         <v>437</v>
       </c>
@@ -15710,7 +15710,7 @@
       <c r="AS85" s="4"/>
       <c r="AT85" s="4"/>
     </row>
-    <row r="86" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="14" t="s">
         <v>440</v>
       </c>
@@ -15804,7 +15804,7 @@
       <c r="AS86" s="4"/>
       <c r="AT86" s="4"/>
     </row>
-    <row r="87" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="14" t="s">
         <v>444</v>
       </c>
@@ -15902,7 +15902,7 @@
       <c r="AS87" s="4"/>
       <c r="AT87" s="4"/>
     </row>
-    <row r="88" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="14" t="s">
         <v>452</v>
       </c>
@@ -16000,7 +16000,7 @@
       <c r="AS88" s="4"/>
       <c r="AT88" s="4"/>
     </row>
-    <row r="89" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="14" t="s">
         <v>455</v>
       </c>
@@ -16098,7 +16098,7 @@
       <c r="AS89" s="4"/>
       <c r="AT89" s="4"/>
     </row>
-    <row r="90" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="14" t="s">
         <v>461</v>
       </c>
@@ -16196,7 +16196,7 @@
       <c r="AS90" s="4"/>
       <c r="AT90" s="4"/>
     </row>
-    <row r="91" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="14" t="s">
         <v>465</v>
       </c>
@@ -16294,7 +16294,7 @@
       <c r="AS91" s="4"/>
       <c r="AT91" s="4"/>
     </row>
-    <row r="92" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="14" t="s">
         <v>470</v>
       </c>
@@ -16392,7 +16392,7 @@
       <c r="AS92" s="4"/>
       <c r="AT92" s="4"/>
     </row>
-    <row r="93" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="14" t="s">
         <v>473</v>
       </c>
@@ -16490,7 +16490,7 @@
       <c r="AS93" s="4"/>
       <c r="AT93" s="4"/>
     </row>
-    <row r="94" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="14" t="s">
         <v>479</v>
       </c>
@@ -16588,7 +16588,7 @@
       <c r="AS94" s="4"/>
       <c r="AT94" s="4"/>
     </row>
-    <row r="95" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="14" t="s">
         <v>482</v>
       </c>
@@ -16686,7 +16686,7 @@
       <c r="AS95" s="4"/>
       <c r="AT95" s="4"/>
     </row>
-    <row r="96" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="14" t="s">
         <v>486</v>
       </c>
@@ -16784,7 +16784,7 @@
       <c r="AS96" s="4"/>
       <c r="AT96" s="4"/>
     </row>
-    <row r="97" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="14" t="s">
         <v>491</v>
       </c>
@@ -16882,7 +16882,7 @@
       <c r="AS97" s="4"/>
       <c r="AT97" s="4"/>
     </row>
-    <row r="98" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="14" t="s">
         <v>500</v>
       </c>
@@ -16978,7 +16978,7 @@
       <c r="AS98" s="4"/>
       <c r="AT98" s="4"/>
     </row>
-    <row r="99" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="14" t="s">
         <v>502</v>
       </c>
@@ -17074,7 +17074,7 @@
       <c r="AS99" s="4"/>
       <c r="AT99" s="4"/>
     </row>
-    <row r="100" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="14" t="s">
         <v>506</v>
       </c>
@@ -17170,7 +17170,7 @@
       <c r="AS100" s="4"/>
       <c r="AT100" s="4"/>
     </row>
-    <row r="101" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="14" t="s">
         <v>508</v>
       </c>
@@ -17268,7 +17268,7 @@
       <c r="AS101" s="4"/>
       <c r="AT101" s="4"/>
     </row>
-    <row r="102" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="14" t="s">
         <v>511</v>
       </c>
@@ -17366,7 +17366,7 @@
       <c r="AS102" s="4"/>
       <c r="AT102" s="4"/>
     </row>
-    <row r="103" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="14" t="s">
         <v>514</v>
       </c>
@@ -17464,7 +17464,7 @@
       <c r="AS103" s="4"/>
       <c r="AT103" s="4"/>
     </row>
-    <row r="104" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="14" t="s">
         <v>518</v>
       </c>
@@ -17562,7 +17562,7 @@
       <c r="AS104" s="4"/>
       <c r="AT104" s="4"/>
     </row>
-    <row r="105" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="14" t="s">
         <v>523</v>
       </c>
@@ -17662,7 +17662,7 @@
       <c r="AS105" s="4"/>
       <c r="AT105" s="4"/>
     </row>
-    <row r="106" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="14" t="s">
         <v>532</v>
       </c>
@@ -17762,7 +17762,7 @@
       <c r="AS106" s="4"/>
       <c r="AT106" s="4"/>
     </row>
-    <row r="107" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="14" t="s">
         <v>534</v>
       </c>
@@ -17862,7 +17862,7 @@
       <c r="AS107" s="4"/>
       <c r="AT107" s="4"/>
     </row>
-    <row r="108" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="14" t="s">
         <v>542</v>
       </c>
@@ -17962,7 +17962,7 @@
       <c r="AS108" s="4"/>
       <c r="AT108" s="4"/>
     </row>
-    <row r="109" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="14" t="s">
         <v>546</v>
       </c>
@@ -18062,7 +18062,7 @@
       <c r="AS109" s="4"/>
       <c r="AT109" s="4"/>
     </row>
-    <row r="110" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="14" t="s">
         <v>554</v>
       </c>
@@ -18162,7 +18162,7 @@
       <c r="AS110" s="4"/>
       <c r="AT110" s="4"/>
     </row>
-    <row r="111" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="14" t="s">
         <v>559</v>
       </c>
@@ -18262,7 +18262,7 @@
       <c r="AS111" s="4"/>
       <c r="AT111" s="4"/>
     </row>
-    <row r="112" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="14" t="s">
         <v>563</v>
       </c>
@@ -18362,7 +18362,7 @@
       <c r="AS112" s="4"/>
       <c r="AT112" s="4"/>
     </row>
-    <row r="113" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="14" t="s">
         <v>567</v>
       </c>
@@ -18462,7 +18462,7 @@
       <c r="AS113" s="4"/>
       <c r="AT113" s="4"/>
     </row>
-    <row r="114" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="14" t="s">
         <v>570</v>
       </c>
@@ -18562,7 +18562,7 @@
       <c r="AS114" s="4"/>
       <c r="AT114" s="4"/>
     </row>
-    <row r="115" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="14" t="s">
         <v>576</v>
       </c>
@@ -18662,7 +18662,7 @@
       <c r="AS115" s="4"/>
       <c r="AT115" s="4"/>
     </row>
-    <row r="116" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="14" t="s">
         <v>579</v>
       </c>
@@ -18762,7 +18762,7 @@
       <c r="AS116" s="4"/>
       <c r="AT116" s="4"/>
     </row>
-    <row r="117" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="14" t="s">
         <v>582</v>
       </c>
@@ -18862,7 +18862,7 @@
       <c r="AS117" s="4"/>
       <c r="AT117" s="4"/>
     </row>
-    <row r="118" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="14" t="s">
         <v>591</v>
       </c>
@@ -18958,7 +18958,7 @@
       <c r="AS118" s="4"/>
       <c r="AT118" s="4"/>
     </row>
-    <row r="119" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="14" t="s">
         <v>598</v>
       </c>
@@ -19054,7 +19054,7 @@
       <c r="AS119" s="4"/>
       <c r="AT119" s="4"/>
     </row>
-    <row r="120" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="14" t="s">
         <v>603</v>
       </c>
@@ -19150,7 +19150,7 @@
       <c r="AS120" s="4"/>
       <c r="AT120" s="4"/>
     </row>
-    <row r="121" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="14" t="s">
         <v>613</v>
       </c>
@@ -19248,7 +19248,7 @@
       <c r="AS121" s="4"/>
       <c r="AT121" s="4"/>
     </row>
-    <row r="122" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="14" t="s">
         <v>622</v>
       </c>
@@ -19346,7 +19346,7 @@
       <c r="AS122" s="4"/>
       <c r="AT122" s="4"/>
     </row>
-    <row r="123" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="14" t="s">
         <v>626</v>
       </c>
@@ -19446,7 +19446,7 @@
       <c r="AS123" s="4"/>
       <c r="AT123" s="4"/>
     </row>
-    <row r="124" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="14" t="s">
         <v>632</v>
       </c>
@@ -19546,7 +19546,7 @@
       <c r="AS124" s="4"/>
       <c r="AT124" s="4"/>
     </row>
-    <row r="125" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="14" t="s">
         <v>640</v>
       </c>
@@ -19644,7 +19644,7 @@
       <c r="AS125" s="4"/>
       <c r="AT125" s="4"/>
     </row>
-    <row r="126" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="14" t="s">
         <v>647</v>
       </c>
@@ -19740,7 +19740,7 @@
       <c r="AS126" s="4"/>
       <c r="AT126" s="4"/>
     </row>
-    <row r="127" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="14" t="s">
         <v>650</v>
       </c>
@@ -19836,7 +19836,7 @@
       <c r="AS127" s="4"/>
       <c r="AT127" s="4"/>
     </row>
-    <row r="128" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="14" t="s">
         <v>656</v>
       </c>
@@ -19932,7 +19932,7 @@
       <c r="AS128" s="4"/>
       <c r="AT128" s="4"/>
     </row>
-    <row r="129" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="14" t="s">
         <v>663</v>
       </c>
@@ -20028,7 +20028,7 @@
       <c r="AS129" s="4"/>
       <c r="AT129" s="4"/>
     </row>
-    <row r="130" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="14" t="s">
         <v>667</v>
       </c>
@@ -20126,7 +20126,7 @@
       <c r="AS130" s="4"/>
       <c r="AT130" s="4"/>
     </row>
-    <row r="131" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="14" t="s">
         <v>673</v>
       </c>
@@ -20220,7 +20220,7 @@
       <c r="AS131" s="4"/>
       <c r="AT131" s="4"/>
     </row>
-    <row r="132" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="14" t="s">
         <v>676</v>
       </c>
@@ -20314,7 +20314,7 @@
       <c r="AS132" s="4"/>
       <c r="AT132" s="4"/>
     </row>
-    <row r="133" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="14" t="s">
         <v>679</v>
       </c>
@@ -20408,7 +20408,7 @@
       <c r="AS133" s="4"/>
       <c r="AT133" s="4"/>
     </row>
-    <row r="134" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="14" t="s">
         <v>682</v>
       </c>
@@ -20502,7 +20502,7 @@
       <c r="AS134" s="4"/>
       <c r="AT134" s="4"/>
     </row>
-    <row r="135" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="14" t="s">
         <v>685</v>
       </c>
@@ -20596,7 +20596,7 @@
       <c r="AS135" s="4"/>
       <c r="AT135" s="4"/>
     </row>
-    <row r="136" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="14" t="s">
         <v>688</v>
       </c>
@@ -20692,7 +20692,7 @@
       <c r="AS136" s="4"/>
       <c r="AT136" s="4"/>
     </row>
-    <row r="137" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="14" t="s">
         <v>695</v>
       </c>
@@ -20788,7 +20788,7 @@
       <c r="AS137" s="4"/>
       <c r="AT137" s="4"/>
     </row>
-    <row r="138" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="14" t="s">
         <v>698</v>
       </c>
@@ -20884,7 +20884,7 @@
       <c r="AS138" s="4"/>
       <c r="AT138" s="4"/>
     </row>
-    <row r="139" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="14" t="s">
         <v>701</v>
       </c>
@@ -20980,7 +20980,7 @@
       <c r="AS139" s="4"/>
       <c r="AT139" s="4"/>
     </row>
-    <row r="140" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="14" t="s">
         <v>705</v>
       </c>
@@ -21076,7 +21076,7 @@
       <c r="AS140" s="4"/>
       <c r="AT140" s="4"/>
     </row>
-    <row r="141" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="14" t="s">
         <v>709</v>
       </c>
@@ -21172,7 +21172,7 @@
       <c r="AS141" s="4"/>
       <c r="AT141" s="4"/>
     </row>
-    <row r="142" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="14" t="s">
         <v>713</v>
       </c>
@@ -21270,7 +21270,7 @@
       <c r="AS142" s="4"/>
       <c r="AT142" s="4"/>
     </row>
-    <row r="143" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="14" t="s">
         <v>716</v>
       </c>
@@ -21368,7 +21368,7 @@
       <c r="AS143" s="4"/>
       <c r="AT143" s="4"/>
     </row>
-    <row r="144" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="14" t="s">
         <v>719</v>
       </c>
@@ -21466,7 +21466,7 @@
       <c r="AS144" s="4"/>
       <c r="AT144" s="4"/>
     </row>
-    <row r="145" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="14" t="s">
         <v>721</v>
       </c>
@@ -21562,7 +21562,7 @@
       <c r="AS145" s="4"/>
       <c r="AT145" s="4"/>
     </row>
-    <row r="146" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="14" t="s">
         <v>728</v>
       </c>
@@ -21658,7 +21658,7 @@
       <c r="AS146" s="4"/>
       <c r="AT146" s="4"/>
     </row>
-    <row r="147" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="14" t="s">
         <v>731</v>
       </c>
@@ -21754,7 +21754,7 @@
       <c r="AS147" s="4"/>
       <c r="AT147" s="4"/>
     </row>
-    <row r="148" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="14" t="s">
         <v>740</v>
       </c>
@@ -21850,7 +21850,7 @@
       <c r="AS148" s="4"/>
       <c r="AT148" s="4"/>
     </row>
-    <row r="149" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="14" t="s">
         <v>747</v>
       </c>
@@ -21946,7 +21946,7 @@
       <c r="AS149" s="4"/>
       <c r="AT149" s="4"/>
     </row>
-    <row r="150" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="14" t="s">
         <v>753</v>
       </c>
@@ -22038,7 +22038,7 @@
       <c r="AS150" s="4"/>
       <c r="AT150" s="4"/>
     </row>
-    <row r="151" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>759</v>
       </c>
@@ -22128,7 +22128,7 @@
       <c r="AS151" s="4"/>
       <c r="AT151" s="4"/>
     </row>
-    <row r="152" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>764</v>
       </c>
@@ -22178,7 +22178,7 @@
       <c r="AS152" s="13"/>
       <c r="AT152" s="13"/>
     </row>
-    <row r="153" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="14" t="s">
         <v>765</v>
       </c>
@@ -22274,7 +22274,7 @@
       <c r="AS153" s="4"/>
       <c r="AT153" s="4"/>
     </row>
-    <row r="154" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="14" t="s">
         <v>775</v>
       </c>
@@ -22372,7 +22372,7 @@
       <c r="AS154" s="4"/>
       <c r="AT154" s="4"/>
     </row>
-    <row r="155" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="14" t="s">
         <v>784</v>
       </c>
@@ -22470,7 +22470,7 @@
       <c r="AS155" s="4"/>
       <c r="AT155" s="4"/>
     </row>
-    <row r="156" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="14" t="s">
         <v>792</v>
       </c>
@@ -22568,7 +22568,7 @@
       <c r="AS156" s="4"/>
       <c r="AT156" s="4"/>
     </row>
-    <row r="157" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="14" t="s">
         <v>796</v>
       </c>
@@ -22666,7 +22666,7 @@
       <c r="AS157" s="4"/>
       <c r="AT157" s="4"/>
     </row>
-    <row r="158" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="14" t="s">
         <v>804</v>
       </c>
@@ -22764,7 +22764,7 @@
       <c r="AS158" s="4"/>
       <c r="AT158" s="4"/>
     </row>
-    <row r="159" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="14" t="s">
         <v>809</v>
       </c>
@@ -22862,7 +22862,7 @@
       <c r="AS159" s="4"/>
       <c r="AT159" s="4"/>
     </row>
-    <row r="160" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="14" t="s">
         <v>814</v>
       </c>
@@ -22960,7 +22960,7 @@
       <c r="AS160" s="4"/>
       <c r="AT160" s="4"/>
     </row>
-    <row r="161" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="14" t="s">
         <v>818</v>
       </c>
@@ -23058,7 +23058,7 @@
       <c r="AS161" s="4"/>
       <c r="AT161" s="4"/>
     </row>
-    <row r="162" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="14" t="s">
         <v>821</v>
       </c>
@@ -23156,7 +23156,7 @@
       <c r="AS162" s="4"/>
       <c r="AT162" s="4"/>
     </row>
-    <row r="163" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="14" t="s">
         <v>824</v>
       </c>
@@ -23254,7 +23254,7 @@
       <c r="AS163" s="4"/>
       <c r="AT163" s="4"/>
     </row>
-    <row r="164" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="14" t="s">
         <v>831</v>
       </c>
@@ -23352,7 +23352,7 @@
       <c r="AS164" s="4"/>
       <c r="AT164" s="4"/>
     </row>
-    <row r="165" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="14" t="s">
         <v>837</v>
       </c>
@@ -23450,7 +23450,7 @@
       <c r="AS165" s="4"/>
       <c r="AT165" s="4"/>
     </row>
-    <row r="166" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="14" t="s">
         <v>840</v>
       </c>
@@ -23548,7 +23548,7 @@
       <c r="AS166" s="4"/>
       <c r="AT166" s="4"/>
     </row>
-    <row r="167" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="14" t="s">
         <v>843</v>
       </c>
@@ -23646,7 +23646,7 @@
       <c r="AS167" s="4"/>
       <c r="AT167" s="4"/>
     </row>
-    <row r="168" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="14" t="s">
         <v>846</v>
       </c>
@@ -23744,7 +23744,7 @@
       <c r="AS168" s="4"/>
       <c r="AT168" s="4"/>
     </row>
-    <row r="169" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="14" t="s">
         <v>849</v>
       </c>
@@ -23842,7 +23842,7 @@
       <c r="AS169" s="4"/>
       <c r="AT169" s="4"/>
     </row>
-    <row r="170" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="14" t="s">
         <v>852</v>
       </c>
@@ -23940,7 +23940,7 @@
       <c r="AS170" s="4"/>
       <c r="AT170" s="4"/>
     </row>
-    <row r="171" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="14" t="s">
         <v>861</v>
       </c>
@@ -24038,7 +24038,7 @@
       <c r="AS171" s="4"/>
       <c r="AT171" s="4"/>
     </row>
-    <row r="172" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="14" t="s">
         <v>864</v>
       </c>
@@ -24136,7 +24136,7 @@
       <c r="AS172" s="4"/>
       <c r="AT172" s="4"/>
     </row>
-    <row r="173" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="14" t="s">
         <v>872</v>
       </c>
@@ -24234,7 +24234,7 @@
       <c r="AS173" s="4"/>
       <c r="AT173" s="4"/>
     </row>
-    <row r="174" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="14" t="s">
         <v>876</v>
       </c>
@@ -24332,7 +24332,7 @@
       <c r="AS174" s="4"/>
       <c r="AT174" s="4"/>
     </row>
-    <row r="175" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="14" t="s">
         <v>880</v>
       </c>
@@ -24430,7 +24430,7 @@
       <c r="AS175" s="4"/>
       <c r="AT175" s="4"/>
     </row>
-    <row r="176" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="14" t="s">
         <v>884</v>
       </c>
@@ -24526,7 +24526,7 @@
       <c r="AS176" s="4"/>
       <c r="AT176" s="4"/>
     </row>
-    <row r="177" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="14" t="s">
         <v>893</v>
       </c>
@@ -24624,7 +24624,7 @@
       <c r="AS177" s="4"/>
       <c r="AT177" s="4"/>
     </row>
-    <row r="178" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="14" t="s">
         <v>901</v>
       </c>
@@ -24724,7 +24724,7 @@
       <c r="AS178" s="4"/>
       <c r="AT178" s="4"/>
     </row>
-    <row r="179" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="14" t="s">
         <v>910</v>
       </c>
@@ -24822,7 +24822,7 @@
       <c r="AS179" s="4"/>
       <c r="AT179" s="4"/>
     </row>
-    <row r="180" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
         <v>913</v>
       </c>
@@ -24916,7 +24916,7 @@
       <c r="AS180" s="4"/>
       <c r="AT180" s="4"/>
     </row>
-    <row r="181" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="14" t="s">
         <v>921</v>
       </c>
@@ -25014,7 +25014,7 @@
       <c r="AS181" s="4"/>
       <c r="AT181" s="4"/>
     </row>
-    <row r="182" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="14" t="s">
         <v>929</v>
       </c>
@@ -25112,7 +25112,7 @@
       <c r="AS182" s="4"/>
       <c r="AT182" s="4"/>
     </row>
-    <row r="183" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="14" t="s">
         <v>933</v>
       </c>
@@ -25210,7 +25210,7 @@
       <c r="AS183" s="4"/>
       <c r="AT183" s="4"/>
     </row>
-    <row r="184" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="14" t="s">
         <v>936</v>
       </c>
@@ -25308,7 +25308,7 @@
       <c r="AS184" s="4"/>
       <c r="AT184" s="4"/>
     </row>
-    <row r="185" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="14" t="s">
         <v>939</v>
       </c>
@@ -25406,7 +25406,7 @@
       <c r="AS185" s="4"/>
       <c r="AT185" s="4"/>
     </row>
-    <row r="186" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="14" t="s">
         <v>946</v>
       </c>
@@ -25502,7 +25502,7 @@
       <c r="AS186" s="4"/>
       <c r="AT186" s="4"/>
     </row>
-    <row r="187" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="14" t="s">
         <v>952</v>
       </c>
@@ -25600,7 +25600,7 @@
       <c r="AS187" s="4"/>
       <c r="AT187" s="4"/>
     </row>
-    <row r="188" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="14" t="s">
         <v>961</v>
       </c>
@@ -25698,7 +25698,7 @@
       <c r="AS188" s="4"/>
       <c r="AT188" s="4"/>
     </row>
-    <row r="189" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="14" t="s">
         <v>964</v>
       </c>
@@ -25794,7 +25794,7 @@
       <c r="AS189" s="4"/>
       <c r="AT189" s="4"/>
     </row>
-    <row r="190" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="14" t="s">
         <v>967</v>
       </c>
@@ -25890,7 +25890,7 @@
       <c r="AS190" s="4"/>
       <c r="AT190" s="4"/>
     </row>
-    <row r="191" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="14" t="s">
         <v>972</v>
       </c>
@@ -25986,7 +25986,7 @@
       <c r="AS191" s="4"/>
       <c r="AT191" s="4"/>
     </row>
-    <row r="192" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
         <v>979</v>
       </c>
@@ -26082,7 +26082,7 @@
       <c r="AS192" s="4"/>
       <c r="AT192" s="4"/>
     </row>
-    <row r="193" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
         <v>985</v>
       </c>
@@ -26178,7 +26178,7 @@
       <c r="AS193" s="4"/>
       <c r="AT193" s="4"/>
     </row>
-    <row r="194" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
         <v>990</v>
       </c>
@@ -26274,7 +26274,7 @@
       <c r="AS194" s="4"/>
       <c r="AT194" s="4"/>
     </row>
-    <row r="195" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
         <v>994</v>
       </c>
@@ -26370,7 +26370,7 @@
       <c r="AS195" s="4"/>
       <c r="AT195" s="4"/>
     </row>
-    <row r="196" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
         <v>997</v>
       </c>
@@ -26466,7 +26466,7 @@
       <c r="AS196" s="4"/>
       <c r="AT196" s="4"/>
     </row>
-    <row r="197" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
         <v>1000</v>
       </c>
@@ -26562,7 +26562,7 @@
       <c r="AS197" s="4"/>
       <c r="AT197" s="4"/>
     </row>
-    <row r="198" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
         <v>1003</v>
       </c>
@@ -26658,7 +26658,7 @@
       <c r="AS198" s="4"/>
       <c r="AT198" s="4"/>
     </row>
-    <row r="199" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
         <v>1006</v>
       </c>
@@ -26756,7 +26756,7 @@
       <c r="AS199" s="4"/>
       <c r="AT199" s="4"/>
     </row>
-    <row r="200" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="14" t="s">
         <v>1013</v>
       </c>
@@ -26854,7 +26854,7 @@
       <c r="AS200" s="4"/>
       <c r="AT200" s="4"/>
     </row>
-    <row r="201" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="14" t="s">
         <v>1015</v>
       </c>
@@ -26952,7 +26952,7 @@
       <c r="AS201" s="4"/>
       <c r="AT201" s="4"/>
     </row>
-    <row r="202" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="14" t="s">
         <v>1017</v>
       </c>
@@ -27050,7 +27050,7 @@
       <c r="AS202" s="4"/>
       <c r="AT202" s="4"/>
     </row>
-    <row r="203" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="14" t="s">
         <v>1019</v>
       </c>
@@ -27148,7 +27148,7 @@
       <c r="AS203" s="4"/>
       <c r="AT203" s="4"/>
     </row>
-    <row r="204" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="14" t="s">
         <v>1021</v>
       </c>
@@ -27246,7 +27246,7 @@
       <c r="AS204" s="4"/>
       <c r="AT204" s="4"/>
     </row>
-    <row r="205" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="14" t="s">
         <v>1028</v>
       </c>
@@ -27344,7 +27344,7 @@
       <c r="AS205" s="4"/>
       <c r="AT205" s="4"/>
     </row>
-    <row r="206" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="14" t="s">
         <v>1037</v>
       </c>
@@ -27440,7 +27440,7 @@
       <c r="AS206" s="4"/>
       <c r="AT206" s="4"/>
     </row>
-    <row r="207" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="14" t="s">
         <v>1042</v>
       </c>
@@ -27536,7 +27536,7 @@
       <c r="AS207" s="4"/>
       <c r="AT207" s="4"/>
     </row>
-    <row r="208" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="14" t="s">
         <v>1049</v>
       </c>
@@ -27632,7 +27632,7 @@
       <c r="AS208" s="4"/>
       <c r="AT208" s="4"/>
     </row>
-    <row r="209" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
         <v>1055</v>
       </c>
@@ -27728,7 +27728,7 @@
       <c r="AS209" s="4"/>
       <c r="AT209" s="4"/>
     </row>
-    <row r="210" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
         <v>1065</v>
       </c>
@@ -27824,7 +27824,7 @@
       <c r="AS210" s="4"/>
       <c r="AT210" s="4"/>
     </row>
-    <row r="211" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>1070</v>
       </c>
@@ -27920,7 +27920,7 @@
       <c r="AS211" s="4"/>
       <c r="AT211" s="4"/>
     </row>
-    <row r="212" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>1075</v>
       </c>
@@ -27970,7 +27970,7 @@
       <c r="AS212" s="13"/>
       <c r="AT212" s="13"/>
     </row>
-    <row r="213" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="14" t="s">
         <v>1076</v>
       </c>
@@ -28066,7 +28066,7 @@
       <c r="AS213" s="4"/>
       <c r="AT213" s="4"/>
     </row>
-    <row r="214" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="14" t="s">
         <v>1084</v>
       </c>
@@ -28162,7 +28162,7 @@
       <c r="AS214" s="4"/>
       <c r="AT214" s="4"/>
     </row>
-    <row r="215" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="14" t="s">
         <v>1090</v>
       </c>
@@ -28258,7 +28258,7 @@
       <c r="AS215" s="4"/>
       <c r="AT215" s="4"/>
     </row>
-    <row r="216" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="14" t="s">
         <v>1096</v>
       </c>
@@ -28354,7 +28354,7 @@
       <c r="AS216" s="4"/>
       <c r="AT216" s="4"/>
     </row>
-    <row r="217" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="14" t="s">
         <v>1102</v>
       </c>
@@ -28450,7 +28450,7 @@
       <c r="AS217" s="4"/>
       <c r="AT217" s="4"/>
     </row>
-    <row r="218" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="14" t="s">
         <v>1104</v>
       </c>
@@ -28548,7 +28548,7 @@
       <c r="AS218" s="4"/>
       <c r="AT218" s="4"/>
     </row>
-    <row r="219" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="14" t="s">
         <v>1111</v>
       </c>
@@ -28644,7 +28644,7 @@
       <c r="AS219" s="4"/>
       <c r="AT219" s="4"/>
     </row>
-    <row r="220" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="14" t="s">
         <v>1116</v>
       </c>
@@ -28740,7 +28740,7 @@
       <c r="AS220" s="4"/>
       <c r="AT220" s="4"/>
     </row>
-    <row r="221" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="14" t="s">
         <v>1121</v>
       </c>
@@ -28834,7 +28834,7 @@
       <c r="AS221" s="4"/>
       <c r="AT221" s="4"/>
     </row>
-    <row r="222" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="14" t="s">
         <v>1127</v>
       </c>
@@ -28930,7 +28930,7 @@
       <c r="AS222" s="4"/>
       <c r="AT222" s="4"/>
     </row>
-    <row r="223" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="14" t="s">
         <v>1133</v>
       </c>
@@ -29028,7 +29028,7 @@
       <c r="AS223" s="4"/>
       <c r="AT223" s="4"/>
     </row>
-    <row r="224" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="14" t="s">
         <v>1137</v>
       </c>
@@ -29124,7 +29124,7 @@
       <c r="AS224" s="4"/>
       <c r="AT224" s="4"/>
     </row>
-    <row r="225" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="14" t="s">
         <v>1140</v>
       </c>
@@ -29220,7 +29220,7 @@
       <c r="AS225" s="4"/>
       <c r="AT225" s="4"/>
     </row>
-    <row r="226" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="14" t="s">
         <v>1142</v>
       </c>
@@ -29316,7 +29316,7 @@
       <c r="AS226" s="4"/>
       <c r="AT226" s="4"/>
     </row>
-    <row r="227" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="14" t="s">
         <v>1148</v>
       </c>
@@ -29414,7 +29414,7 @@
       <c r="AS227" s="4"/>
       <c r="AT227" s="4"/>
     </row>
-    <row r="228" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="14" t="s">
         <v>1157</v>
       </c>
@@ -29510,7 +29510,7 @@
       <c r="AS228" s="4"/>
       <c r="AT228" s="4"/>
     </row>
-    <row r="229" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="14" t="s">
         <v>1162</v>
       </c>
@@ -29606,7 +29606,7 @@
       <c r="AS229" s="4"/>
       <c r="AT229" s="4"/>
     </row>
-    <row r="230" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="14" t="s">
         <v>1167</v>
       </c>
@@ -29702,7 +29702,7 @@
       <c r="AS230" s="4"/>
       <c r="AT230" s="4"/>
     </row>
-    <row r="231" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="34" t="s">
         <v>1174</v>
       </c>
@@ -29798,7 +29798,7 @@
       <c r="AS231" s="4"/>
       <c r="AT231" s="4"/>
     </row>
-    <row r="232" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="34" t="s">
         <v>1178</v>
       </c>
@@ -29898,7 +29898,7 @@
       <c r="AS232" s="4"/>
       <c r="AT232" s="4"/>
     </row>
-    <row r="233" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="34" t="s">
         <v>1187</v>
       </c>
@@ -29992,7 +29992,7 @@
       <c r="AS233" s="4"/>
       <c r="AT233" s="4"/>
     </row>
-    <row r="234" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="34" t="s">
         <v>1194</v>
       </c>
@@ -30086,7 +30086,7 @@
       <c r="AS234" s="4"/>
       <c r="AT234" s="4"/>
     </row>
-    <row r="235" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="42" t="s">
         <v>1198</v>
       </c>
@@ -30186,7 +30186,7 @@
       <c r="AS235" s="4"/>
       <c r="AT235" s="4"/>
     </row>
-    <row r="236" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="34" t="s">
         <v>1207</v>
       </c>
@@ -30284,7 +30284,7 @@
       <c r="AS236" s="4"/>
       <c r="AT236" s="4"/>
     </row>
-    <row r="237" spans="1:46" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="62" t="s">
         <v>1214</v>
       </c>
@@ -30366,7 +30366,7 @@
       <c r="AA237" s="62"/>
       <c r="AB237" s="62"/>
     </row>
-    <row r="238" spans="1:46" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="62" t="s">
         <v>2320</v>
       </c>
@@ -30446,7 +30446,7 @@
       <c r="AA238" s="62"/>
       <c r="AB238" s="62"/>
     </row>
-    <row r="239" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="34" t="s">
         <v>1229</v>
       </c>
@@ -30542,7 +30542,7 @@
       <c r="AS239" s="4"/>
       <c r="AT239" s="4"/>
     </row>
-    <row r="240" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="34" t="s">
         <v>1237</v>
       </c>
@@ -30640,7 +30640,7 @@
       <c r="AS240" s="4"/>
       <c r="AT240" s="4"/>
     </row>
-    <row r="241" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="34" t="s">
         <v>1247</v>
       </c>
@@ -30738,7 +30738,7 @@
       <c r="AS241" s="4"/>
       <c r="AT241" s="4"/>
     </row>
-    <row r="242" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="34" t="s">
         <v>1251</v>
       </c>
@@ -30834,7 +30834,7 @@
       <c r="AS242" s="4"/>
       <c r="AT242" s="4"/>
     </row>
-    <row r="243" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="34" t="s">
         <v>1254</v>
       </c>
@@ -30932,7 +30932,7 @@
       <c r="AS243" s="4"/>
       <c r="AT243" s="4"/>
     </row>
-    <row r="244" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="34" t="s">
         <v>1259</v>
       </c>
@@ -31030,7 +31030,7 @@
       <c r="AS244" s="4"/>
       <c r="AT244" s="4"/>
     </row>
-    <row r="245" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="34" t="s">
         <v>1264</v>
       </c>
@@ -31128,7 +31128,7 @@
       <c r="AS245" s="4"/>
       <c r="AT245" s="4"/>
     </row>
-    <row r="246" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="34" t="s">
         <v>1268</v>
       </c>
@@ -31226,7 +31226,7 @@
       <c r="AS246" s="4"/>
       <c r="AT246" s="4"/>
     </row>
-    <row r="247" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="34" t="s">
         <v>1275</v>
       </c>
@@ -31326,7 +31326,7 @@
       <c r="AS247" s="4"/>
       <c r="AT247" s="4"/>
     </row>
-    <row r="248" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="34" t="s">
         <v>1278</v>
       </c>
@@ -31422,7 +31422,7 @@
       <c r="AS248" s="4"/>
       <c r="AT248" s="4"/>
     </row>
-    <row r="249" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="34" t="s">
         <v>1282</v>
       </c>
@@ -31520,7 +31520,7 @@
       <c r="AS249" s="4"/>
       <c r="AT249" s="4"/>
     </row>
-    <row r="250" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="34" t="s">
         <v>1288</v>
       </c>
@@ -31616,7 +31616,7 @@
       <c r="AS250" s="4"/>
       <c r="AT250" s="4"/>
     </row>
-    <row r="251" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="42" t="s">
         <v>1295</v>
       </c>
@@ -31712,7 +31712,7 @@
       <c r="AS251" s="4"/>
       <c r="AT251" s="4"/>
     </row>
-    <row r="252" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="34" t="s">
         <v>1300</v>
       </c>
@@ -31810,7 +31810,7 @@
       <c r="AS252" s="4"/>
       <c r="AT252" s="4"/>
     </row>
-    <row r="253" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="34" t="s">
         <v>1304</v>
       </c>
@@ -31906,7 +31906,7 @@
       <c r="AS253" s="4"/>
       <c r="AT253" s="4"/>
     </row>
-    <row r="254" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="34" t="s">
         <v>1311</v>
       </c>
@@ -32006,7 +32006,7 @@
       <c r="AS254" s="4"/>
       <c r="AT254" s="4"/>
     </row>
-    <row r="255" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="34" t="s">
         <v>1317</v>
       </c>
@@ -32104,7 +32104,7 @@
       <c r="AS255" s="4"/>
       <c r="AT255" s="4"/>
     </row>
-    <row r="256" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="14" t="s">
         <v>1324</v>
       </c>
@@ -32200,7 +32200,7 @@
       <c r="AS256" s="4"/>
       <c r="AT256" s="4"/>
     </row>
-    <row r="257" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="14" t="s">
         <v>1331</v>
       </c>
@@ -32296,7 +32296,7 @@
       <c r="AS257" s="4"/>
       <c r="AT257" s="4"/>
     </row>
-    <row r="258" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="14" t="s">
         <v>1336</v>
       </c>
@@ -32392,7 +32392,7 @@
       <c r="AS258" s="4"/>
       <c r="AT258" s="4"/>
     </row>
-    <row r="259" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="14" t="s">
         <v>1343</v>
       </c>
@@ -32488,7 +32488,7 @@
       <c r="AS259" s="4"/>
       <c r="AT259" s="4"/>
     </row>
-    <row r="260" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="14" t="s">
         <v>1346</v>
       </c>
@@ -32582,7 +32582,7 @@
       <c r="AS260" s="4"/>
       <c r="AT260" s="4"/>
     </row>
-    <row r="261" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="14" t="s">
         <v>1350</v>
       </c>
@@ -32678,7 +32678,7 @@
       <c r="AS261" s="4"/>
       <c r="AT261" s="4"/>
     </row>
-    <row r="262" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="14" t="s">
         <v>1355</v>
       </c>
@@ -32774,7 +32774,7 @@
       <c r="AS262" s="4"/>
       <c r="AT262" s="4"/>
     </row>
-    <row r="263" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="14" t="s">
         <v>1359</v>
       </c>
@@ -32870,7 +32870,7 @@
       <c r="AS263" s="4"/>
       <c r="AT263" s="4"/>
     </row>
-    <row r="264" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="14" t="s">
         <v>1365</v>
       </c>
@@ -32966,7 +32966,7 @@
       <c r="AS264" s="4"/>
       <c r="AT264" s="4"/>
     </row>
-    <row r="265" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
         <v>1372</v>
       </c>
@@ -33062,7 +33062,7 @@
       <c r="AS265" s="4"/>
       <c r="AT265" s="4"/>
     </row>
-    <row r="266" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
         <v>1378</v>
       </c>
@@ -33158,7 +33158,7 @@
       <c r="AS266" s="4"/>
       <c r="AT266" s="4"/>
     </row>
-    <row r="267" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="14" t="s">
         <v>1381</v>
       </c>
@@ -33256,7 +33256,7 @@
       <c r="AS267" s="4"/>
       <c r="AT267" s="4"/>
     </row>
-    <row r="268" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="14" t="s">
         <v>1389</v>
       </c>
@@ -33354,7 +33354,7 @@
       <c r="AS268" s="4"/>
       <c r="AT268" s="4"/>
     </row>
-    <row r="269" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="14" t="s">
         <v>1394</v>
       </c>
@@ -33452,7 +33452,7 @@
       <c r="AS269" s="4"/>
       <c r="AT269" s="4"/>
     </row>
-    <row r="270" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="14" t="s">
         <v>1399</v>
       </c>
@@ -33550,7 +33550,7 @@
       <c r="AS270" s="4"/>
       <c r="AT270" s="4"/>
     </row>
-    <row r="271" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="14" t="s">
         <v>1404</v>
       </c>
@@ -33644,7 +33644,7 @@
       <c r="AS271" s="4"/>
       <c r="AT271" s="4"/>
     </row>
-    <row r="272" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="14" t="s">
         <v>1410</v>
       </c>
@@ -33740,7 +33740,7 @@
       <c r="AS272" s="4"/>
       <c r="AT272" s="4"/>
     </row>
-    <row r="273" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="14" t="s">
         <v>1415</v>
       </c>
@@ -33834,7 +33834,7 @@
       <c r="AS273" s="4"/>
       <c r="AT273" s="4"/>
     </row>
-    <row r="274" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="14" t="s">
         <v>1418</v>
       </c>
@@ -33930,7 +33930,7 @@
       <c r="AS274" s="4"/>
       <c r="AT274" s="4"/>
     </row>
-    <row r="275" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="14" t="s">
         <v>1422</v>
       </c>
@@ -34028,7 +34028,7 @@
       <c r="AS275" s="4"/>
       <c r="AT275" s="4"/>
     </row>
-    <row r="276" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="14" t="s">
         <v>1428</v>
       </c>
@@ -34126,7 +34126,7 @@
       <c r="AS276" s="4"/>
       <c r="AT276" s="4"/>
     </row>
-    <row r="277" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="14" t="s">
         <v>1434</v>
       </c>
@@ -34222,7 +34222,7 @@
       <c r="AS277" s="4"/>
       <c r="AT277" s="4"/>
     </row>
-    <row r="278" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="14" t="s">
         <v>1437</v>
       </c>
@@ -34318,7 +34318,7 @@
       <c r="AS278" s="4"/>
       <c r="AT278" s="4"/>
     </row>
-    <row r="279" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="14" t="s">
         <v>1439</v>
       </c>
@@ -34412,7 +34412,7 @@
       <c r="AS279" s="4"/>
       <c r="AT279" s="4"/>
     </row>
-    <row r="280" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="14" t="s">
         <v>1446</v>
       </c>
@@ -34506,7 +34506,7 @@
       <c r="AS280" s="4"/>
       <c r="AT280" s="4"/>
     </row>
-    <row r="281" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="14" t="s">
         <v>1451</v>
       </c>
@@ -34600,7 +34600,7 @@
       <c r="AS281" s="4"/>
       <c r="AT281" s="4"/>
     </row>
-    <row r="282" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="14" t="s">
         <v>1455</v>
       </c>
@@ -34696,7 +34696,7 @@
       <c r="AS282" s="4"/>
       <c r="AT282" s="4"/>
     </row>
-    <row r="283" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="14" t="s">
         <v>1462</v>
       </c>
@@ -34790,7 +34790,7 @@
       <c r="AS283" s="4"/>
       <c r="AT283" s="4"/>
     </row>
-    <row r="284" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="14" t="s">
         <v>1464</v>
       </c>
@@ -34886,7 +34886,7 @@
       <c r="AS284" s="4"/>
       <c r="AT284" s="4"/>
     </row>
-    <row r="285" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="14" t="s">
         <v>1469</v>
       </c>
@@ -34982,7 +34982,7 @@
       <c r="AS285" s="4"/>
       <c r="AT285" s="4"/>
     </row>
-    <row r="286" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="14" t="s">
         <v>1474</v>
       </c>
@@ -35078,7 +35078,7 @@
       <c r="AS286" s="4"/>
       <c r="AT286" s="4"/>
     </row>
-    <row r="287" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="14" t="s">
         <v>1477</v>
       </c>
@@ -35172,7 +35172,7 @@
       <c r="AS287" s="4"/>
       <c r="AT287" s="4"/>
     </row>
-    <row r="288" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A288" s="14" t="s">
         <v>1483</v>
       </c>
@@ -35266,7 +35266,7 @@
       <c r="AS288" s="4"/>
       <c r="AT288" s="4"/>
     </row>
-    <row r="289" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>1488</v>
       </c>
@@ -35316,7 +35316,7 @@
       <c r="AS289" s="13"/>
       <c r="AT289" s="13"/>
     </row>
-    <row r="290" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="14" t="s">
         <v>1489</v>
       </c>
@@ -35412,7 +35412,7 @@
       <c r="AS290" s="4"/>
       <c r="AT290" s="4"/>
     </row>
-    <row r="291" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="14" t="s">
         <v>1499</v>
       </c>
@@ -35508,7 +35508,7 @@
       <c r="AS291" s="4"/>
       <c r="AT291" s="4"/>
     </row>
-    <row r="292" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="14" t="s">
         <v>1503</v>
       </c>
@@ -35604,7 +35604,7 @@
       <c r="AS292" s="4"/>
       <c r="AT292" s="4"/>
     </row>
-    <row r="293" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="14" t="s">
         <v>1509</v>
       </c>
@@ -35700,7 +35700,7 @@
       <c r="AS293" s="4"/>
       <c r="AT293" s="4"/>
     </row>
-    <row r="294" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="14" t="s">
         <v>1515</v>
       </c>
@@ -35796,7 +35796,7 @@
       <c r="AS294" s="4"/>
       <c r="AT294" s="4"/>
     </row>
-    <row r="295" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="14" t="s">
         <v>1520</v>
       </c>
@@ -35892,7 +35892,7 @@
       <c r="AS295" s="4"/>
       <c r="AT295" s="4"/>
     </row>
-    <row r="296" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="14" t="s">
         <v>1526</v>
       </c>
@@ -35988,7 +35988,7 @@
       <c r="AS296" s="4"/>
       <c r="AT296" s="4"/>
     </row>
-    <row r="297" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="14" t="s">
         <v>1533</v>
       </c>
@@ -36084,7 +36084,7 @@
       <c r="AS297" s="4"/>
       <c r="AT297" s="4"/>
     </row>
-    <row r="298" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="14" t="s">
         <v>1541</v>
       </c>
@@ -36180,7 +36180,7 @@
       <c r="AS298" s="4"/>
       <c r="AT298" s="4"/>
     </row>
-    <row r="299" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="14" t="s">
         <v>1545</v>
       </c>
@@ -36276,7 +36276,7 @@
       <c r="AS299" s="4"/>
       <c r="AT299" s="4"/>
     </row>
-    <row r="300" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="14" t="s">
         <v>1551</v>
       </c>
@@ -36374,7 +36374,7 @@
       <c r="AS300" s="4"/>
       <c r="AT300" s="4"/>
     </row>
-    <row r="301" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="14" t="s">
         <v>1557</v>
       </c>
@@ -36470,7 +36470,7 @@
       <c r="AS301" s="4"/>
       <c r="AT301" s="4"/>
     </row>
-    <row r="302" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="14" t="s">
         <v>1562</v>
       </c>
@@ -36566,7 +36566,7 @@
       <c r="AS302" s="4"/>
       <c r="AT302" s="4"/>
     </row>
-    <row r="303" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="14" t="s">
         <v>1566</v>
       </c>
@@ -36662,7 +36662,7 @@
       <c r="AS303" s="4"/>
       <c r="AT303" s="4"/>
     </row>
-    <row r="304" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="14" t="s">
         <v>1571</v>
       </c>
@@ -36758,7 +36758,7 @@
       <c r="AS304" s="4"/>
       <c r="AT304" s="4"/>
     </row>
-    <row r="305" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="14" t="s">
         <v>1575</v>
       </c>
@@ -36854,7 +36854,7 @@
       <c r="AS305" s="4"/>
       <c r="AT305" s="4"/>
     </row>
-    <row r="306" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A306" s="14" t="s">
         <v>1580</v>
       </c>
@@ -36950,7 +36950,7 @@
       <c r="AS306" s="4"/>
       <c r="AT306" s="4"/>
     </row>
-    <row r="307" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
         <v>1589</v>
       </c>
@@ -37000,7 +37000,7 @@
       <c r="AS307" s="13"/>
       <c r="AT307" s="13"/>
     </row>
-    <row r="308" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="14" t="s">
         <v>1590</v>
       </c>
@@ -37031,9 +37031,15 @@
       <c r="J308" s="17">
         <v>1992</v>
       </c>
-      <c r="K308" s="15"/>
-      <c r="L308" s="14"/>
-      <c r="M308" s="17"/>
+      <c r="K308" s="15">
+        <v>1</v>
+      </c>
+      <c r="L308" s="14" t="s">
+        <v>1595</v>
+      </c>
+      <c r="M308" s="17" t="s">
+        <v>1592</v>
+      </c>
       <c r="N308" s="15">
         <v>1</v>
       </c>
@@ -37086,7 +37092,7 @@
       <c r="AS308" s="4"/>
       <c r="AT308" s="4"/>
     </row>
-    <row r="309" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="14" t="s">
         <v>1597</v>
       </c>
@@ -37182,7 +37188,7 @@
       <c r="AS309" s="4"/>
       <c r="AT309" s="4"/>
     </row>
-    <row r="310" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="14" t="s">
         <v>1600</v>
       </c>
@@ -37278,7 +37284,7 @@
       <c r="AS310" s="4"/>
       <c r="AT310" s="4"/>
     </row>
-    <row r="311" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="14" t="s">
         <v>1605</v>
       </c>
@@ -37374,7 +37380,7 @@
       <c r="AS311" s="4"/>
       <c r="AT311" s="4"/>
     </row>
-    <row r="312" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="14" t="s">
         <v>1608</v>
       </c>
@@ -37466,7 +37472,7 @@
       <c r="AS312" s="4"/>
       <c r="AT312" s="4"/>
     </row>
-    <row r="313" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="14" t="s">
         <v>1611</v>
       </c>
@@ -37562,7 +37568,7 @@
       <c r="AS313" s="4"/>
       <c r="AT313" s="4"/>
     </row>
-    <row r="314" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="14" t="s">
         <v>1617</v>
       </c>
@@ -37658,7 +37664,7 @@
       <c r="AS314" s="4"/>
       <c r="AT314" s="4"/>
     </row>
-    <row r="315" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="14" t="s">
         <v>1622</v>
       </c>
@@ -37756,7 +37762,7 @@
       <c r="AS315" s="4"/>
       <c r="AT315" s="4"/>
     </row>
-    <row r="316" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="14" t="s">
         <v>1626</v>
       </c>
@@ -37854,7 +37860,7 @@
       <c r="AS316" s="4"/>
       <c r="AT316" s="4"/>
     </row>
-    <row r="317" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="14" t="s">
         <v>1630</v>
       </c>
@@ -37950,7 +37956,7 @@
       <c r="AS317" s="4"/>
       <c r="AT317" s="4"/>
     </row>
-    <row r="318" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="14" t="s">
         <v>1636</v>
       </c>
@@ -38046,7 +38052,7 @@
       <c r="AS318" s="4"/>
       <c r="AT318" s="4"/>
     </row>
-    <row r="319" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="30" t="s">
         <v>1643</v>
       </c>
@@ -38140,7 +38146,7 @@
       <c r="AS319" s="4"/>
       <c r="AT319" s="4"/>
     </row>
-    <row r="320" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="14" t="s">
         <v>1649</v>
       </c>
@@ -38234,7 +38240,7 @@
       <c r="AS320" s="4"/>
       <c r="AT320" s="4"/>
     </row>
-    <row r="321" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="14" t="s">
         <v>1654</v>
       </c>
@@ -38330,7 +38336,7 @@
       <c r="AS321" s="4"/>
       <c r="AT321" s="4"/>
     </row>
-    <row r="322" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="14" t="s">
         <v>1660</v>
       </c>
@@ -38426,7 +38432,7 @@
       <c r="AS322" s="4"/>
       <c r="AT322" s="4"/>
     </row>
-    <row r="323" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="14" t="s">
         <v>1666</v>
       </c>
@@ -38522,7 +38528,7 @@
       <c r="AS323" s="4"/>
       <c r="AT323" s="4"/>
     </row>
-    <row r="324" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="14" t="s">
         <v>1669</v>
       </c>
@@ -38620,7 +38626,7 @@
       <c r="AS324" s="4"/>
       <c r="AT324" s="4"/>
     </row>
-    <row r="325" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="14" t="s">
         <v>1675</v>
       </c>
@@ -38716,7 +38722,7 @@
       <c r="AS325" s="4"/>
       <c r="AT325" s="4"/>
     </row>
-    <row r="326" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="14" t="s">
         <v>1683</v>
       </c>
@@ -38810,7 +38816,7 @@
       <c r="AS326" s="4"/>
       <c r="AT326" s="4"/>
     </row>
-    <row r="327" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="14" t="s">
         <v>1689</v>
       </c>
@@ -38906,7 +38912,7 @@
       <c r="AS327" s="4"/>
       <c r="AT327" s="4"/>
     </row>
-    <row r="328" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="14" t="s">
         <v>1692</v>
       </c>
@@ -39000,7 +39006,7 @@
       <c r="AS328" s="4"/>
       <c r="AT328" s="4"/>
     </row>
-    <row r="329" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="14" t="s">
         <v>1696</v>
       </c>
@@ -39096,7 +39102,7 @@
       <c r="AS329" s="4"/>
       <c r="AT329" s="4"/>
     </row>
-    <row r="330" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="14" t="s">
         <v>1702</v>
       </c>
@@ -39192,7 +39198,7 @@
       <c r="AS330" s="4"/>
       <c r="AT330" s="4"/>
     </row>
-    <row r="331" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="14" t="s">
         <v>1707</v>
       </c>
@@ -39288,7 +39294,7 @@
       <c r="AS331" s="4"/>
       <c r="AT331" s="4"/>
     </row>
-    <row r="332" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="14" t="s">
         <v>1712</v>
       </c>
@@ -39384,7 +39390,7 @@
       <c r="AS332" s="4"/>
       <c r="AT332" s="4"/>
     </row>
-    <row r="333" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="14" t="s">
         <v>1718</v>
       </c>
@@ -39480,7 +39486,7 @@
       <c r="AS333" s="4"/>
       <c r="AT333" s="4"/>
     </row>
-    <row r="334" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="14" t="s">
         <v>1725</v>
       </c>
@@ -39576,7 +39582,7 @@
       <c r="AS334" s="4"/>
       <c r="AT334" s="4"/>
     </row>
-    <row r="335" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="14" t="s">
         <v>1731</v>
       </c>
@@ -39672,7 +39678,7 @@
       <c r="AS335" s="4"/>
       <c r="AT335" s="4"/>
     </row>
-    <row r="336" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="14" t="s">
         <v>1736</v>
       </c>
@@ -39768,7 +39774,7 @@
       <c r="AS336" s="4"/>
       <c r="AT336" s="4"/>
     </row>
-    <row r="337" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="14" t="s">
         <v>1743</v>
       </c>
@@ -39862,7 +39868,7 @@
       <c r="AS337" s="4"/>
       <c r="AT337" s="4"/>
     </row>
-    <row r="338" spans="1:46" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:46" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="57" t="s">
         <v>1747</v>
       </c>
@@ -39937,7 +39943,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="339" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="14" t="s">
         <v>1753</v>
       </c>
@@ -40033,7 +40039,7 @@
       <c r="AS339" s="4"/>
       <c r="AT339" s="4"/>
     </row>
-    <row r="340" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="14" t="s">
         <v>1760</v>
       </c>
@@ -40129,7 +40135,7 @@
       <c r="AS340" s="4"/>
       <c r="AT340" s="4"/>
     </row>
-    <row r="341" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="14" t="s">
         <v>1766</v>
       </c>
@@ -40225,7 +40231,7 @@
       <c r="AS341" s="4"/>
       <c r="AT341" s="4"/>
     </row>
-    <row r="342" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="14" t="s">
         <v>1773</v>
       </c>
@@ -40321,7 +40327,7 @@
       <c r="AS342" s="4"/>
       <c r="AT342" s="4"/>
     </row>
-    <row r="343" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="14" t="s">
         <v>1778</v>
       </c>
@@ -40417,7 +40423,7 @@
       <c r="AS343" s="4"/>
       <c r="AT343" s="4"/>
     </row>
-    <row r="344" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="14" t="s">
         <v>1783</v>
       </c>
@@ -40513,7 +40519,7 @@
       <c r="AS344" s="4"/>
       <c r="AT344" s="4"/>
     </row>
-    <row r="345" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="14" t="s">
         <v>1785</v>
       </c>
@@ -40609,7 +40615,7 @@
       <c r="AS345" s="4"/>
       <c r="AT345" s="4"/>
     </row>
-    <row r="346" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="14" t="s">
         <v>1788</v>
       </c>
@@ -40705,7 +40711,7 @@
       <c r="AS346" s="4"/>
       <c r="AT346" s="4"/>
     </row>
-    <row r="347" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="14" t="s">
         <v>1793</v>
       </c>
@@ -40801,7 +40807,7 @@
       <c r="AS347" s="4"/>
       <c r="AT347" s="4"/>
     </row>
-    <row r="348" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="14" t="s">
         <v>1798</v>
       </c>
@@ -40897,7 +40903,7 @@
       <c r="AS348" s="4"/>
       <c r="AT348" s="4"/>
     </row>
-    <row r="349" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="14" t="s">
         <v>1801</v>
       </c>
@@ -40993,7 +40999,7 @@
       <c r="AS349" s="4"/>
       <c r="AT349" s="4"/>
     </row>
-    <row r="350" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="14" t="s">
         <v>1806</v>
       </c>
@@ -41089,7 +41095,7 @@
       <c r="AS350" s="4"/>
       <c r="AT350" s="4"/>
     </row>
-    <row r="351" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="14" t="s">
         <v>1811</v>
       </c>
@@ -41185,7 +41191,7 @@
       <c r="AS351" s="4"/>
       <c r="AT351" s="4"/>
     </row>
-    <row r="352" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="14" t="s">
         <v>1816</v>
       </c>
@@ -41281,7 +41287,7 @@
       <c r="AS352" s="4"/>
       <c r="AT352" s="4"/>
     </row>
-    <row r="353" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A353" s="14" t="s">
         <v>1823</v>
       </c>
@@ -41377,7 +41383,7 @@
       <c r="AS353" s="4"/>
       <c r="AT353" s="4"/>
     </row>
-    <row r="354" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>1828</v>
       </c>
@@ -41427,7 +41433,7 @@
       <c r="AS354" s="13"/>
       <c r="AT354" s="13"/>
     </row>
-    <row r="355" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="14" t="s">
         <v>1829</v>
       </c>
@@ -41523,7 +41529,7 @@
       <c r="AS355" s="4"/>
       <c r="AT355" s="4"/>
     </row>
-    <row r="356" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="14" t="s">
         <v>1837</v>
       </c>
@@ -41619,7 +41625,7 @@
       <c r="AS356" s="4"/>
       <c r="AT356" s="4"/>
     </row>
-    <row r="357" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A357" s="14" t="s">
         <v>1839</v>
       </c>
@@ -41715,7 +41721,7 @@
       <c r="AS357" s="4"/>
       <c r="AT357" s="4"/>
     </row>
-    <row r="358" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>1842</v>
       </c>
@@ -41771,7 +41777,7 @@
       <c r="AS358" s="13"/>
       <c r="AT358" s="13"/>
     </row>
-    <row r="359" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="14" t="s">
         <v>1843</v>
       </c>
@@ -41865,7 +41871,7 @@
       <c r="AS359" s="4"/>
       <c r="AT359" s="4"/>
     </row>
-    <row r="360" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="14" t="s">
         <v>1851</v>
       </c>
@@ -41959,7 +41965,7 @@
       <c r="AS360" s="4"/>
       <c r="AT360" s="4"/>
     </row>
-    <row r="361" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A361" s="14" t="s">
         <v>1857</v>
       </c>
@@ -42053,7 +42059,7 @@
       <c r="AS361" s="4"/>
       <c r="AT361" s="4"/>
     </row>
-    <row r="362" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
         <v>1863</v>
       </c>
@@ -42103,7 +42109,7 @@
       <c r="AS362" s="13"/>
       <c r="AT362" s="13"/>
     </row>
-    <row r="363" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="14" t="s">
         <v>1864</v>
       </c>
@@ -42197,7 +42203,7 @@
       <c r="AS363" s="4"/>
       <c r="AT363" s="4"/>
     </row>
-    <row r="364" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
         <v>1874</v>
       </c>
@@ -42291,7 +42297,7 @@
       <c r="AS364" s="4"/>
       <c r="AT364" s="4"/>
     </row>
-    <row r="365" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
         <v>1879</v>
       </c>
@@ -42385,7 +42391,7 @@
       <c r="AS365" s="4"/>
       <c r="AT365" s="4"/>
     </row>
-    <row r="366" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="14" t="s">
         <v>1881</v>
       </c>
@@ -42479,7 +42485,7 @@
       <c r="AS366" s="4"/>
       <c r="AT366" s="4"/>
     </row>
-    <row r="367" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="14" t="s">
         <v>1889</v>
       </c>
@@ -42573,7 +42579,7 @@
       <c r="AS367" s="4"/>
       <c r="AT367" s="4"/>
     </row>
-    <row r="368" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="14" t="s">
         <v>1894</v>
       </c>
@@ -42669,7 +42675,7 @@
       <c r="AS368" s="4"/>
       <c r="AT368" s="4"/>
     </row>
-    <row r="369" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="14" t="s">
         <v>1903</v>
       </c>
@@ -42767,7 +42773,7 @@
       <c r="AS369" s="4"/>
       <c r="AT369" s="4"/>
     </row>
-    <row r="370" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="14" t="s">
         <v>1911</v>
       </c>
@@ -42863,7 +42869,7 @@
       <c r="AS370" s="4"/>
       <c r="AT370" s="4"/>
     </row>
-    <row r="371" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="14" t="s">
         <v>1918</v>
       </c>
@@ -42961,7 +42967,7 @@
       <c r="AS371" s="4"/>
       <c r="AT371" s="4"/>
     </row>
-    <row r="372" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
         <v>1923</v>
       </c>
@@ -43057,7 +43063,7 @@
       <c r="AS372" s="4"/>
       <c r="AT372" s="4"/>
     </row>
-    <row r="373" spans="1:46" s="57" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:46" s="57" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="58" t="s">
         <v>2331</v>
       </c>
@@ -43133,7 +43139,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="374" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
         <v>1931</v>
       </c>
@@ -43229,7 +43235,7 @@
       <c r="AS374" s="4"/>
       <c r="AT374" s="4"/>
     </row>
-    <row r="375" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
         <v>1935</v>
       </c>
@@ -43325,7 +43331,7 @@
       <c r="AS375" s="4"/>
       <c r="AT375" s="4"/>
     </row>
-    <row r="376" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
         <v>1939</v>
       </c>
@@ -43421,7 +43427,7 @@
       <c r="AS376" s="4"/>
       <c r="AT376" s="4"/>
     </row>
-    <row r="377" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
         <v>1943</v>
       </c>
@@ -43517,7 +43523,7 @@
       <c r="AS377" s="4"/>
       <c r="AT377" s="4"/>
     </row>
-    <row r="378" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
         <v>1947</v>
       </c>
@@ -43613,7 +43619,7 @@
       <c r="AS378" s="4"/>
       <c r="AT378" s="4"/>
     </row>
-    <row r="379" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
         <v>1951</v>
       </c>
@@ -43709,7 +43715,7 @@
       <c r="AS379" s="4"/>
       <c r="AT379" s="4"/>
     </row>
-    <row r="380" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
         <v>1955</v>
       </c>
@@ -43805,7 +43811,7 @@
       <c r="AS380" s="4"/>
       <c r="AT380" s="4"/>
     </row>
-    <row r="381" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
         <v>1958</v>
       </c>
@@ -43901,7 +43907,7 @@
       <c r="AS381" s="4"/>
       <c r="AT381" s="4"/>
     </row>
-    <row r="382" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
         <v>1962</v>
       </c>
@@ -43997,7 +44003,7 @@
       <c r="AS382" s="4"/>
       <c r="AT382" s="4"/>
     </row>
-    <row r="383" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
         <v>1967</v>
       </c>
@@ -44093,7 +44099,7 @@
       <c r="AS383" s="4"/>
       <c r="AT383" s="4"/>
     </row>
-    <row r="384" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
         <v>1971</v>
       </c>
@@ -44189,7 +44195,7 @@
       <c r="AS384" s="4"/>
       <c r="AT384" s="4"/>
     </row>
-    <row r="385" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
         <v>1977</v>
       </c>
@@ -44285,7 +44291,7 @@
       <c r="AS385" s="4"/>
       <c r="AT385" s="4"/>
     </row>
-    <row r="386" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
         <v>1981</v>
       </c>
@@ -44381,7 +44387,7 @@
       <c r="AS386" s="4"/>
       <c r="AT386" s="4"/>
     </row>
-    <row r="387" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
         <v>1985</v>
       </c>
@@ -44477,7 +44483,7 @@
       <c r="AS387" s="4"/>
       <c r="AT387" s="4"/>
     </row>
-    <row r="388" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
         <v>1989</v>
       </c>
@@ -44573,7 +44579,7 @@
       <c r="AS388" s="4"/>
       <c r="AT388" s="4"/>
     </row>
-    <row r="389" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="4" t="s">
         <v>1992</v>
       </c>
@@ -44669,7 +44675,7 @@
       <c r="AS389" s="4"/>
       <c r="AT389" s="4"/>
     </row>
-    <row r="390" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
         <v>1996</v>
       </c>
@@ -44765,7 +44771,7 @@
       <c r="AS390" s="4"/>
       <c r="AT390" s="4"/>
     </row>
-    <row r="391" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="14" t="s">
         <v>1999</v>
       </c>
@@ -44857,7 +44863,7 @@
       <c r="AS391" s="4"/>
       <c r="AT391" s="4"/>
     </row>
-    <row r="392" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
         <v>2007</v>
       </c>
@@ -44949,7 +44955,7 @@
       <c r="AS392" s="4"/>
       <c r="AT392" s="4"/>
     </row>
-    <row r="393" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
         <v>2014</v>
       </c>
@@ -45043,7 +45049,7 @@
       <c r="AS393" s="4"/>
       <c r="AT393" s="4"/>
     </row>
-    <row r="394" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
         <v>2018</v>
       </c>
@@ -45135,7 +45141,7 @@
       <c r="AS394" s="4"/>
       <c r="AT394" s="4"/>
     </row>
-    <row r="395" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
         <v>2023</v>
       </c>
@@ -45227,7 +45233,7 @@
       <c r="AS395" s="4"/>
       <c r="AT395" s="4"/>
     </row>
-    <row r="396" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
         <v>2026</v>
       </c>
@@ -45319,7 +45325,7 @@
       <c r="AS396" s="4"/>
       <c r="AT396" s="4"/>
     </row>
-    <row r="397" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
         <v>2029</v>
       </c>
@@ -45411,7 +45417,7 @@
       <c r="AS397" s="4"/>
       <c r="AT397" s="4"/>
     </row>
-    <row r="398" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5" t="s">
         <v>2034</v>
       </c>
@@ -45461,7 +45467,7 @@
       <c r="AS398" s="13"/>
       <c r="AT398" s="13"/>
     </row>
-    <row r="399" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="14" t="s">
         <v>2035</v>
       </c>
@@ -45557,7 +45563,7 @@
       <c r="AS399" s="4"/>
       <c r="AT399" s="4"/>
     </row>
-    <row r="400" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
         <v>2043</v>
       </c>
@@ -45655,7 +45661,7 @@
       <c r="AS400" s="4"/>
       <c r="AT400" s="4"/>
     </row>
-    <row r="401" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="14" t="s">
         <v>2051</v>
       </c>
@@ -45751,7 +45757,7 @@
       <c r="AS401" s="4"/>
       <c r="AT401" s="4"/>
     </row>
-    <row r="402" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="14" t="s">
         <v>2058</v>
       </c>
@@ -45847,7 +45853,7 @@
       <c r="AS402" s="4"/>
       <c r="AT402" s="4"/>
     </row>
-    <row r="403" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="14" t="s">
         <v>2065</v>
       </c>
@@ -45943,7 +45949,7 @@
       <c r="AS403" s="4"/>
       <c r="AT403" s="4"/>
     </row>
-    <row r="404" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="14" t="s">
         <v>2071</v>
       </c>
@@ -46037,7 +46043,7 @@
       <c r="AS404" s="4"/>
       <c r="AT404" s="4"/>
     </row>
-    <row r="405" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="14" t="s">
         <v>2079</v>
       </c>
@@ -46133,7 +46139,7 @@
       <c r="AS405" s="4"/>
       <c r="AT405" s="4"/>
     </row>
-    <row r="406" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A406" s="14" t="s">
         <v>2085</v>
       </c>
@@ -46227,7 +46233,7 @@
       <c r="AS406" s="4"/>
       <c r="AT406" s="4"/>
     </row>
-    <row r="407" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
         <v>2090</v>
       </c>
@@ -46277,7 +46283,7 @@
       <c r="AS407" s="13"/>
       <c r="AT407" s="13"/>
     </row>
-    <row r="408" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="30" t="s">
         <v>2091</v>
       </c>
@@ -46373,7 +46379,7 @@
       <c r="AS408" s="4"/>
       <c r="AT408" s="4"/>
     </row>
-    <row r="409" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="30" t="s">
         <v>2099</v>
       </c>
@@ -46469,7 +46475,7 @@
       <c r="AS409" s="4"/>
       <c r="AT409" s="4"/>
     </row>
-    <row r="410" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="14" t="s">
         <v>2104</v>
       </c>
@@ -46563,7 +46569,7 @@
       <c r="AS410" s="4"/>
       <c r="AT410" s="4"/>
     </row>
-    <row r="411" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="14" t="s">
         <v>2111</v>
       </c>
@@ -46659,7 +46665,7 @@
       <c r="AS411" s="4"/>
       <c r="AT411" s="4"/>
     </row>
-    <row r="412" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="14" t="s">
         <v>2116</v>
       </c>
@@ -46755,7 +46761,7 @@
       <c r="AS412" s="4"/>
       <c r="AT412" s="4"/>
     </row>
-    <row r="413" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="14" t="s">
         <v>2121</v>
       </c>
@@ -46849,7 +46855,7 @@
       <c r="AS413" s="4"/>
       <c r="AT413" s="4"/>
     </row>
-    <row r="414" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="14" t="s">
         <v>2126</v>
       </c>
@@ -46945,7 +46951,7 @@
       <c r="AS414" s="4"/>
       <c r="AT414" s="4"/>
     </row>
-    <row r="415" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="14" t="s">
         <v>2131</v>
       </c>
@@ -47041,7 +47047,7 @@
       <c r="AS415" s="4"/>
       <c r="AT415" s="4"/>
     </row>
-    <row r="416" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="14" t="s">
         <v>2140</v>
       </c>
@@ -47137,7 +47143,7 @@
       <c r="AS416" s="4"/>
       <c r="AT416" s="4"/>
     </row>
-    <row r="417" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="14" t="s">
         <v>2143</v>
       </c>
@@ -47231,7 +47237,7 @@
       <c r="AS417" s="4"/>
       <c r="AT417" s="4"/>
     </row>
-    <row r="418" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="14" t="s">
         <v>2149</v>
       </c>
@@ -47327,7 +47333,7 @@
       <c r="AS418" s="4"/>
       <c r="AT418" s="4"/>
     </row>
-    <row r="419" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="14" t="s">
         <v>2156</v>
       </c>
@@ -47421,7 +47427,7 @@
       <c r="AS419" s="4"/>
       <c r="AT419" s="4"/>
     </row>
-    <row r="420" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="14" t="s">
         <v>2161</v>
       </c>
@@ -47517,7 +47523,7 @@
       <c r="AS420" s="4"/>
       <c r="AT420" s="4"/>
     </row>
-    <row r="421" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="14" t="s">
         <v>2166</v>
       </c>
@@ -47611,7 +47617,7 @@
       <c r="AS421" s="4"/>
       <c r="AT421" s="4"/>
     </row>
-    <row r="422" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="14" t="s">
         <v>2172</v>
       </c>
@@ -47707,7 +47713,7 @@
       <c r="AS422" s="4"/>
       <c r="AT422" s="4"/>
     </row>
-    <row r="423" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="30" t="s">
         <v>2177</v>
       </c>
@@ -47801,7 +47807,7 @@
       <c r="AS423" s="4"/>
       <c r="AT423" s="4"/>
     </row>
-    <row r="424" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="30" t="s">
         <v>2185</v>
       </c>
@@ -47895,7 +47901,7 @@
       <c r="AS424" s="4"/>
       <c r="AT424" s="4"/>
     </row>
-    <row r="425" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="30" t="s">
         <v>2189</v>
       </c>
@@ -47989,7 +47995,7 @@
       <c r="AS425" s="4"/>
       <c r="AT425" s="4"/>
     </row>
-    <row r="426" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="30" t="s">
         <v>2194</v>
       </c>
@@ -48083,7 +48089,7 @@
       <c r="AS426" s="4"/>
       <c r="AT426" s="4"/>
     </row>
-    <row r="427" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="14" t="s">
         <v>2199</v>
       </c>
@@ -48179,7 +48185,7 @@
       <c r="AS427" s="4"/>
       <c r="AT427" s="4"/>
     </row>
-    <row r="428" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="30" t="s">
         <v>2204</v>
       </c>
@@ -48275,7 +48281,7 @@
       <c r="AS428" s="4"/>
       <c r="AT428" s="4"/>
     </row>
-    <row r="429" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="30" t="s">
         <v>2209</v>
       </c>
@@ -48369,7 +48375,7 @@
       <c r="AS429" s="4"/>
       <c r="AT429" s="4"/>
     </row>
-    <row r="430" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="30" t="s">
         <v>2216</v>
       </c>
@@ -48463,7 +48469,7 @@
       <c r="AS430" s="4"/>
       <c r="AT430" s="4"/>
     </row>
-    <row r="431" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="30" t="s">
         <v>2222</v>
       </c>
@@ -48559,7 +48565,7 @@
       <c r="AS431" s="4"/>
       <c r="AT431" s="4"/>
     </row>
-    <row r="432" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="30" t="s">
         <v>2228</v>
       </c>
@@ -48653,7 +48659,7 @@
       <c r="AS432" s="4"/>
       <c r="AT432" s="4"/>
     </row>
-    <row r="433" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="30" t="s">
         <v>2233</v>
       </c>
@@ -48747,7 +48753,7 @@
       <c r="AS433" s="4"/>
       <c r="AT433" s="4"/>
     </row>
-    <row r="434" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="14" t="s">
         <v>2238</v>
       </c>
@@ -48841,7 +48847,7 @@
       <c r="AS434" s="4"/>
       <c r="AT434" s="4"/>
     </row>
-    <row r="435" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="14" t="s">
         <v>2243</v>
       </c>
@@ -48935,7 +48941,7 @@
       <c r="AS435" s="4"/>
       <c r="AT435" s="4"/>
     </row>
-    <row r="436" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A436" s="14" t="s">
         <v>2248</v>
       </c>
@@ -49029,7 +49035,7 @@
       <c r="AS436" s="4"/>
       <c r="AT436" s="4"/>
     </row>
-    <row r="437" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:46" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>2249</v>
       </c>
@@ -49079,7 +49085,7 @@
       <c r="AS437" s="13"/>
       <c r="AT437" s="13"/>
     </row>
-    <row r="438" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="4" t="s">
         <v>2250</v>
       </c>
@@ -49175,7 +49181,7 @@
       <c r="AS438" s="4"/>
       <c r="AT438" s="4"/>
     </row>
-    <row r="439" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="42" t="s">
         <v>2260</v>
       </c>
@@ -49273,7 +49279,7 @@
       <c r="AS439" s="4"/>
       <c r="AT439" s="4"/>
     </row>
-    <row r="440" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="34" t="s">
         <v>2266</v>
       </c>
@@ -49369,7 +49375,7 @@
       <c r="AS440" s="4"/>
       <c r="AT440" s="4"/>
     </row>
-    <row r="441" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="34" t="s">
         <v>2272</v>
       </c>
@@ -49465,7 +49471,7 @@
       <c r="AS441" s="4"/>
       <c r="AT441" s="4"/>
     </row>
-    <row r="442" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="34" t="s">
         <v>2275</v>
       </c>
@@ -49561,7 +49567,7 @@
       <c r="AS442" s="4"/>
       <c r="AT442" s="4"/>
     </row>
-    <row r="443" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="34" t="s">
         <v>2278</v>
       </c>
@@ -49657,7 +49663,7 @@
       <c r="AS443" s="4"/>
       <c r="AT443" s="4"/>
     </row>
-    <row r="444" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="34" t="s">
         <v>2281</v>
       </c>
@@ -49753,7 +49759,7 @@
       <c r="AS444" s="4"/>
       <c r="AT444" s="4"/>
     </row>
-    <row r="445" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="34" t="s">
         <v>2284</v>
       </c>
@@ -49849,7 +49855,7 @@
       <c r="AS445" s="4"/>
       <c r="AT445" s="4"/>
     </row>
-    <row r="446" spans="1:46" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:46" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="62" t="s">
         <v>2323</v>
       </c>
@@ -49928,7 +49934,7 @@
       </c>
       <c r="AA446" s="62"/>
     </row>
-    <row r="447" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="34" t="s">
         <v>2289</v>
       </c>
@@ -50024,7 +50030,7 @@
       <c r="AS447" s="4"/>
       <c r="AT447" s="4"/>
     </row>
-    <row r="448" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="34" t="s">
         <v>2292</v>
       </c>
@@ -50120,7 +50126,7 @@
       <c r="AS448" s="4"/>
       <c r="AT448" s="4"/>
     </row>
-    <row r="449" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="34" t="s">
         <v>2295</v>
       </c>
@@ -50216,7 +50222,7 @@
       <c r="AS449" s="4"/>
       <c r="AT449" s="4"/>
     </row>
-    <row r="450" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="34" t="s">
         <v>2298</v>
       </c>
@@ -50312,7 +50318,7 @@
       <c r="AS450" s="4"/>
       <c r="AT450" s="4"/>
     </row>
-    <row r="451" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="34" t="s">
         <v>2301</v>
       </c>
@@ -50408,7 +50414,7 @@
       <c r="AS451" s="4"/>
       <c r="AT451" s="4"/>
     </row>
-    <row r="452" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="34" t="s">
         <v>2304</v>
       </c>
@@ -50504,7 +50510,7 @@
       <c r="AS452" s="4"/>
       <c r="AT452" s="4"/>
     </row>
-    <row r="453" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="34" t="s">
         <v>2309</v>
       </c>
@@ -50600,7 +50606,7 @@
       <c r="AS453" s="4"/>
       <c r="AT453" s="4"/>
     </row>
-    <row r="454" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="34" t="s">
         <v>2312</v>
       </c>
@@ -50696,7 +50702,7 @@
       <c r="AS454" s="4"/>
       <c r="AT454" s="4"/>
     </row>
-    <row r="455" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="34" t="s">
         <v>2315</v>
       </c>
@@ -50794,7 +50800,7 @@
       <c r="AS455" s="4"/>
       <c r="AT455" s="4"/>
     </row>
-    <row r="456" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="34" t="s">
         <v>2317</v>
       </c>
@@ -50892,7 +50898,7 @@
       <c r="AS456" s="4"/>
       <c r="AT456" s="4"/>
     </row>
-    <row r="457" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="34"/>
       <c r="B457" s="36"/>
       <c r="C457" s="34"/>
@@ -50940,7 +50946,7 @@
       <c r="AS457" s="4"/>
       <c r="AT457" s="4"/>
     </row>
-    <row r="458" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="34"/>
       <c r="B458" s="36"/>
       <c r="C458" s="34"/>
@@ -50988,7 +50994,7 @@
       <c r="AS458" s="4"/>
       <c r="AT458" s="4"/>
     </row>
-    <row r="459" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="34"/>
       <c r="B459" s="36"/>
       <c r="C459" s="34"/>
@@ -51036,7 +51042,7 @@
       <c r="AS459" s="4"/>
       <c r="AT459" s="4"/>
     </row>
-    <row r="460" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="51"/>
       <c r="B460" s="42"/>
       <c r="C460" s="42"/>
@@ -51084,7 +51090,7 @@
       <c r="AS460" s="4"/>
       <c r="AT460" s="4"/>
     </row>
-    <row r="461" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="42"/>
       <c r="B461" s="42"/>
       <c r="C461" s="42"/>
@@ -51132,7 +51138,7 @@
       <c r="AS461" s="4"/>
       <c r="AT461" s="4"/>
     </row>
-    <row r="462" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="42"/>
       <c r="B462" s="42"/>
       <c r="C462" s="42"/>
@@ -51180,7 +51186,7 @@
       <c r="AS462" s="4"/>
       <c r="AT462" s="4"/>
     </row>
-    <row r="463" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -51228,7 +51234,7 @@
       <c r="AS463" s="4"/>
       <c r="AT463" s="4"/>
     </row>
-    <row r="464" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -51276,7 +51282,7 @@
       <c r="AS464" s="4"/>
       <c r="AT464" s="4"/>
     </row>
-    <row r="465" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -51324,7 +51330,7 @@
       <c r="AS465" s="4"/>
       <c r="AT465" s="4"/>
     </row>
-    <row r="466" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -51372,7 +51378,7 @@
       <c r="AS466" s="4"/>
       <c r="AT466" s="4"/>
     </row>
-    <row r="467" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -51420,7 +51426,7 @@
       <c r="AS467" s="4"/>
       <c r="AT467" s="4"/>
     </row>
-    <row r="468" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -51468,7 +51474,7 @@
       <c r="AS468" s="4"/>
       <c r="AT468" s="4"/>
     </row>
-    <row r="469" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -51516,7 +51522,7 @@
       <c r="AS469" s="4"/>
       <c r="AT469" s="4"/>
     </row>
-    <row r="470" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -51564,7 +51570,7 @@
       <c r="AS470" s="4"/>
       <c r="AT470" s="4"/>
     </row>
-    <row r="471" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -51612,7 +51618,7 @@
       <c r="AS471" s="4"/>
       <c r="AT471" s="4"/>
     </row>
-    <row r="472" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -51660,7 +51666,7 @@
       <c r="AS472" s="4"/>
       <c r="AT472" s="4"/>
     </row>
-    <row r="473" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -51708,7 +51714,7 @@
       <c r="AS473" s="4"/>
       <c r="AT473" s="4"/>
     </row>
-    <row r="474" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -51756,7 +51762,7 @@
       <c r="AS474" s="4"/>
       <c r="AT474" s="4"/>
     </row>
-    <row r="475" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -51804,7 +51810,7 @@
       <c r="AS475" s="4"/>
       <c r="AT475" s="4"/>
     </row>
-    <row r="476" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -51852,7 +51858,7 @@
       <c r="AS476" s="4"/>
       <c r="AT476" s="4"/>
     </row>
-    <row r="477" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -51900,7 +51906,7 @@
       <c r="AS477" s="4"/>
       <c r="AT477" s="4"/>
     </row>
-    <row r="478" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -51948,7 +51954,7 @@
       <c r="AS478" s="4"/>
       <c r="AT478" s="4"/>
     </row>
-    <row r="479" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -51996,7 +52002,7 @@
       <c r="AS479" s="4"/>
       <c r="AT479" s="4"/>
     </row>
-    <row r="480" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -52044,7 +52050,7 @@
       <c r="AS480" s="4"/>
       <c r="AT480" s="4"/>
     </row>
-    <row r="481" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -52092,7 +52098,7 @@
       <c r="AS481" s="4"/>
       <c r="AT481" s="4"/>
     </row>
-    <row r="482" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -52140,7 +52146,7 @@
       <c r="AS482" s="4"/>
       <c r="AT482" s="4"/>
     </row>
-    <row r="483" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -52188,7 +52194,7 @@
       <c r="AS483" s="4"/>
       <c r="AT483" s="4"/>
     </row>
-    <row r="484" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -52236,7 +52242,7 @@
       <c r="AS484" s="4"/>
       <c r="AT484" s="4"/>
     </row>
-    <row r="485" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -52284,7 +52290,7 @@
       <c r="AS485" s="4"/>
       <c r="AT485" s="4"/>
     </row>
-    <row r="486" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -52332,7 +52338,7 @@
       <c r="AS486" s="4"/>
       <c r="AT486" s="4"/>
     </row>
-    <row r="487" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -52380,7 +52386,7 @@
       <c r="AS487" s="4"/>
       <c r="AT487" s="4"/>
     </row>
-    <row r="488" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -52428,7 +52434,7 @@
       <c r="AS488" s="4"/>
       <c r="AT488" s="4"/>
     </row>
-    <row r="489" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -52476,7 +52482,7 @@
       <c r="AS489" s="4"/>
       <c r="AT489" s="4"/>
     </row>
-    <row r="490" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -52524,7 +52530,7 @@
       <c r="AS490" s="4"/>
       <c r="AT490" s="4"/>
     </row>
-    <row r="491" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -52572,7 +52578,7 @@
       <c r="AS491" s="4"/>
       <c r="AT491" s="4"/>
     </row>
-    <row r="492" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -52620,7 +52626,7 @@
       <c r="AS492" s="4"/>
       <c r="AT492" s="4"/>
     </row>
-    <row r="493" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -52668,7 +52674,7 @@
       <c r="AS493" s="4"/>
       <c r="AT493" s="4"/>
     </row>
-    <row r="494" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -52716,7 +52722,7 @@
       <c r="AS494" s="4"/>
       <c r="AT494" s="4"/>
     </row>
-    <row r="495" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -52764,7 +52770,7 @@
       <c r="AS495" s="4"/>
       <c r="AT495" s="4"/>
     </row>
-    <row r="496" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -52812,7 +52818,7 @@
       <c r="AS496" s="4"/>
       <c r="AT496" s="4"/>
     </row>
-    <row r="497" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -52860,7 +52866,7 @@
       <c r="AS497" s="4"/>
       <c r="AT497" s="4"/>
     </row>
-    <row r="498" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -52908,7 +52914,7 @@
       <c r="AS498" s="4"/>
       <c r="AT498" s="4"/>
     </row>
-    <row r="499" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -52956,7 +52962,7 @@
       <c r="AS499" s="4"/>
       <c r="AT499" s="4"/>
     </row>
-    <row r="500" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -53004,7 +53010,7 @@
       <c r="AS500" s="4"/>
       <c r="AT500" s="4"/>
     </row>
-    <row r="501" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -53052,7 +53058,7 @@
       <c r="AS501" s="4"/>
       <c r="AT501" s="4"/>
     </row>
-    <row r="502" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -53100,7 +53106,7 @@
       <c r="AS502" s="4"/>
       <c r="AT502" s="4"/>
     </row>
-    <row r="503" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -53148,7 +53154,7 @@
       <c r="AS503" s="4"/>
       <c r="AT503" s="4"/>
     </row>
-    <row r="504" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -53196,7 +53202,7 @@
       <c r="AS504" s="4"/>
       <c r="AT504" s="4"/>
     </row>
-    <row r="505" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -53244,7 +53250,7 @@
       <c r="AS505" s="4"/>
       <c r="AT505" s="4"/>
     </row>
-    <row r="506" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -53292,7 +53298,7 @@
       <c r="AS506" s="4"/>
       <c r="AT506" s="4"/>
     </row>
-    <row r="507" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -53340,7 +53346,7 @@
       <c r="AS507" s="4"/>
       <c r="AT507" s="4"/>
     </row>
-    <row r="508" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -53388,7 +53394,7 @@
       <c r="AS508" s="4"/>
       <c r="AT508" s="4"/>
     </row>
-    <row r="509" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -53436,7 +53442,7 @@
       <c r="AS509" s="4"/>
       <c r="AT509" s="4"/>
     </row>
-    <row r="510" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -53484,7 +53490,7 @@
       <c r="AS510" s="4"/>
       <c r="AT510" s="4"/>
     </row>
-    <row r="511" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -53532,7 +53538,7 @@
       <c r="AS511" s="4"/>
       <c r="AT511" s="4"/>
     </row>
-    <row r="512" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -53580,7 +53586,7 @@
       <c r="AS512" s="4"/>
       <c r="AT512" s="4"/>
     </row>
-    <row r="513" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -53628,7 +53634,7 @@
       <c r="AS513" s="4"/>
       <c r="AT513" s="4"/>
     </row>
-    <row r="514" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -53676,7 +53682,7 @@
       <c r="AS514" s="4"/>
       <c r="AT514" s="4"/>
     </row>
-    <row r="515" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -53724,7 +53730,7 @@
       <c r="AS515" s="4"/>
       <c r="AT515" s="4"/>
     </row>
-    <row r="516" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -53772,7 +53778,7 @@
       <c r="AS516" s="4"/>
       <c r="AT516" s="4"/>
     </row>
-    <row r="517" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -53820,7 +53826,7 @@
       <c r="AS517" s="4"/>
       <c r="AT517" s="4"/>
     </row>
-    <row r="518" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -53868,7 +53874,7 @@
       <c r="AS518" s="4"/>
       <c r="AT518" s="4"/>
     </row>
-    <row r="519" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -53916,7 +53922,7 @@
       <c r="AS519" s="4"/>
       <c r="AT519" s="4"/>
     </row>
-    <row r="520" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -53964,7 +53970,7 @@
       <c r="AS520" s="4"/>
       <c r="AT520" s="4"/>
     </row>
-    <row r="521" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -54012,7 +54018,7 @@
       <c r="AS521" s="4"/>
       <c r="AT521" s="4"/>
     </row>
-    <row r="522" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -54060,7 +54066,7 @@
       <c r="AS522" s="4"/>
       <c r="AT522" s="4"/>
     </row>
-    <row r="523" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -54108,7 +54114,7 @@
       <c r="AS523" s="4"/>
       <c r="AT523" s="4"/>
     </row>
-    <row r="524" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -54156,7 +54162,7 @@
       <c r="AS524" s="4"/>
       <c r="AT524" s="4"/>
     </row>
-    <row r="525" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -54204,7 +54210,7 @@
       <c r="AS525" s="4"/>
       <c r="AT525" s="4"/>
     </row>
-    <row r="526" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -54252,7 +54258,7 @@
       <c r="AS526" s="4"/>
       <c r="AT526" s="4"/>
     </row>
-    <row r="527" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -54300,7 +54306,7 @@
       <c r="AS527" s="4"/>
       <c r="AT527" s="4"/>
     </row>
-    <row r="528" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -54348,7 +54354,7 @@
       <c r="AS528" s="4"/>
       <c r="AT528" s="4"/>
     </row>
-    <row r="529" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -54396,7 +54402,7 @@
       <c r="AS529" s="4"/>
       <c r="AT529" s="4"/>
     </row>
-    <row r="530" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -54444,7 +54450,7 @@
       <c r="AS530" s="4"/>
       <c r="AT530" s="4"/>
     </row>
-    <row r="531" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -54492,7 +54498,7 @@
       <c r="AS531" s="4"/>
       <c r="AT531" s="4"/>
     </row>
-    <row r="532" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -54540,7 +54546,7 @@
       <c r="AS532" s="4"/>
       <c r="AT532" s="4"/>
     </row>
-    <row r="533" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -54588,7 +54594,7 @@
       <c r="AS533" s="4"/>
       <c r="AT533" s="4"/>
     </row>
-    <row r="534" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -54636,7 +54642,7 @@
       <c r="AS534" s="4"/>
       <c r="AT534" s="4"/>
     </row>
-    <row r="535" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -54684,7 +54690,7 @@
       <c r="AS535" s="4"/>
       <c r="AT535" s="4"/>
     </row>
-    <row r="536" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -54732,7 +54738,7 @@
       <c r="AS536" s="4"/>
       <c r="AT536" s="4"/>
     </row>
-    <row r="537" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -54780,7 +54786,7 @@
       <c r="AS537" s="4"/>
       <c r="AT537" s="4"/>
     </row>
-    <row r="538" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -54828,7 +54834,7 @@
       <c r="AS538" s="4"/>
       <c r="AT538" s="4"/>
     </row>
-    <row r="539" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -54876,7 +54882,7 @@
       <c r="AS539" s="4"/>
       <c r="AT539" s="4"/>
     </row>
-    <row r="540" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -54924,7 +54930,7 @@
       <c r="AS540" s="4"/>
       <c r="AT540" s="4"/>
     </row>
-    <row r="541" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -54972,7 +54978,7 @@
       <c r="AS541" s="4"/>
       <c r="AT541" s="4"/>
     </row>
-    <row r="542" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -55020,7 +55026,7 @@
       <c r="AS542" s="4"/>
       <c r="AT542" s="4"/>
     </row>
-    <row r="543" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -55068,7 +55074,7 @@
       <c r="AS543" s="4"/>
       <c r="AT543" s="4"/>
     </row>
-    <row r="544" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -55116,7 +55122,7 @@
       <c r="AS544" s="4"/>
       <c r="AT544" s="4"/>
     </row>
-    <row r="545" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -55164,7 +55170,7 @@
       <c r="AS545" s="4"/>
       <c r="AT545" s="4"/>
     </row>
-    <row r="546" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -55212,7 +55218,7 @@
       <c r="AS546" s="4"/>
       <c r="AT546" s="4"/>
     </row>
-    <row r="547" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -55260,7 +55266,7 @@
       <c r="AS547" s="4"/>
       <c r="AT547" s="4"/>
     </row>
-    <row r="548" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -55308,7 +55314,7 @@
       <c r="AS548" s="4"/>
       <c r="AT548" s="4"/>
     </row>
-    <row r="549" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -55356,7 +55362,7 @@
       <c r="AS549" s="4"/>
       <c r="AT549" s="4"/>
     </row>
-    <row r="550" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -55404,7 +55410,7 @@
       <c r="AS550" s="4"/>
       <c r="AT550" s="4"/>
     </row>
-    <row r="551" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -55452,7 +55458,7 @@
       <c r="AS551" s="4"/>
       <c r="AT551" s="4"/>
     </row>
-    <row r="552" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -55500,7 +55506,7 @@
       <c r="AS552" s="4"/>
       <c r="AT552" s="4"/>
     </row>
-    <row r="553" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -55548,7 +55554,7 @@
       <c r="AS553" s="4"/>
       <c r="AT553" s="4"/>
     </row>
-    <row r="554" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -55596,7 +55602,7 @@
       <c r="AS554" s="4"/>
       <c r="AT554" s="4"/>
     </row>
-    <row r="555" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -55644,7 +55650,7 @@
       <c r="AS555" s="4"/>
       <c r="AT555" s="4"/>
     </row>
-    <row r="556" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -55692,7 +55698,7 @@
       <c r="AS556" s="4"/>
       <c r="AT556" s="4"/>
     </row>
-    <row r="557" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -55740,7 +55746,7 @@
       <c r="AS557" s="4"/>
       <c r="AT557" s="4"/>
     </row>
-    <row r="558" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -55788,7 +55794,7 @@
       <c r="AS558" s="4"/>
       <c r="AT558" s="4"/>
     </row>
-    <row r="559" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -55836,7 +55842,7 @@
       <c r="AS559" s="4"/>
       <c r="AT559" s="4"/>
     </row>
-    <row r="560" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -55884,7 +55890,7 @@
       <c r="AS560" s="4"/>
       <c r="AT560" s="4"/>
     </row>
-    <row r="561" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -55932,7 +55938,7 @@
       <c r="AS561" s="4"/>
       <c r="AT561" s="4"/>
     </row>
-    <row r="562" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -55980,7 +55986,7 @@
       <c r="AS562" s="4"/>
       <c r="AT562" s="4"/>
     </row>
-    <row r="563" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -56028,7 +56034,7 @@
       <c r="AS563" s="4"/>
       <c r="AT563" s="4"/>
     </row>
-    <row r="564" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -56076,7 +56082,7 @@
       <c r="AS564" s="4"/>
       <c r="AT564" s="4"/>
     </row>
-    <row r="565" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -56124,7 +56130,7 @@
       <c r="AS565" s="4"/>
       <c r="AT565" s="4"/>
     </row>
-    <row r="566" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -56172,7 +56178,7 @@
       <c r="AS566" s="4"/>
       <c r="AT566" s="4"/>
     </row>
-    <row r="567" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -56220,7 +56226,7 @@
       <c r="AS567" s="4"/>
       <c r="AT567" s="4"/>
     </row>
-    <row r="568" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -56268,7 +56274,7 @@
       <c r="AS568" s="4"/>
       <c r="AT568" s="4"/>
     </row>
-    <row r="569" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -56316,7 +56322,7 @@
       <c r="AS569" s="4"/>
       <c r="AT569" s="4"/>
     </row>
-    <row r="570" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -56364,7 +56370,7 @@
       <c r="AS570" s="4"/>
       <c r="AT570" s="4"/>
     </row>
-    <row r="571" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -56412,7 +56418,7 @@
       <c r="AS571" s="4"/>
       <c r="AT571" s="4"/>
     </row>
-    <row r="572" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -56460,7 +56466,7 @@
       <c r="AS572" s="4"/>
       <c r="AT572" s="4"/>
     </row>
-    <row r="573" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -56508,7 +56514,7 @@
       <c r="AS573" s="4"/>
       <c r="AT573" s="4"/>
     </row>
-    <row r="574" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -56556,7 +56562,7 @@
       <c r="AS574" s="4"/>
       <c r="AT574" s="4"/>
     </row>
-    <row r="575" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -56604,7 +56610,7 @@
       <c r="AS575" s="4"/>
       <c r="AT575" s="4"/>
     </row>
-    <row r="576" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -56652,7 +56658,7 @@
       <c r="AS576" s="4"/>
       <c r="AT576" s="4"/>
     </row>
-    <row r="577" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -56700,7 +56706,7 @@
       <c r="AS577" s="4"/>
       <c r="AT577" s="4"/>
     </row>
-    <row r="578" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -56748,7 +56754,7 @@
       <c r="AS578" s="4"/>
       <c r="AT578" s="4"/>
     </row>
-    <row r="579" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -56796,7 +56802,7 @@
       <c r="AS579" s="4"/>
       <c r="AT579" s="4"/>
     </row>
-    <row r="580" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -56844,7 +56850,7 @@
       <c r="AS580" s="4"/>
       <c r="AT580" s="4"/>
     </row>
-    <row r="581" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -56892,7 +56898,7 @@
       <c r="AS581" s="4"/>
       <c r="AT581" s="4"/>
     </row>
-    <row r="582" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -56940,7 +56946,7 @@
       <c r="AS582" s="4"/>
       <c r="AT582" s="4"/>
     </row>
-    <row r="583" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -56988,7 +56994,7 @@
       <c r="AS583" s="4"/>
       <c r="AT583" s="4"/>
     </row>
-    <row r="584" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -57036,7 +57042,7 @@
       <c r="AS584" s="4"/>
       <c r="AT584" s="4"/>
     </row>
-    <row r="585" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -57084,7 +57090,7 @@
       <c r="AS585" s="4"/>
       <c r="AT585" s="4"/>
     </row>
-    <row r="586" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -57132,7 +57138,7 @@
       <c r="AS586" s="4"/>
       <c r="AT586" s="4"/>
     </row>
-    <row r="587" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -57180,7 +57186,7 @@
       <c r="AS587" s="4"/>
       <c r="AT587" s="4"/>
     </row>
-    <row r="588" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -57228,7 +57234,7 @@
       <c r="AS588" s="4"/>
       <c r="AT588" s="4"/>
     </row>
-    <row r="589" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -57276,7 +57282,7 @@
       <c r="AS589" s="4"/>
       <c r="AT589" s="4"/>
     </row>
-    <row r="590" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -57324,7 +57330,7 @@
       <c r="AS590" s="4"/>
       <c r="AT590" s="4"/>
     </row>
-    <row r="591" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -57372,7 +57378,7 @@
       <c r="AS591" s="4"/>
       <c r="AT591" s="4"/>
     </row>
-    <row r="592" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -57420,7 +57426,7 @@
       <c r="AS592" s="4"/>
       <c r="AT592" s="4"/>
     </row>
-    <row r="593" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -57468,7 +57474,7 @@
       <c r="AS593" s="4"/>
       <c r="AT593" s="4"/>
     </row>
-    <row r="594" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -57516,7 +57522,7 @@
       <c r="AS594" s="4"/>
       <c r="AT594" s="4"/>
     </row>
-    <row r="595" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -57564,7 +57570,7 @@
       <c r="AS595" s="4"/>
       <c r="AT595" s="4"/>
     </row>
-    <row r="596" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -57612,7 +57618,7 @@
       <c r="AS596" s="4"/>
       <c r="AT596" s="4"/>
     </row>
-    <row r="597" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -57660,7 +57666,7 @@
       <c r="AS597" s="4"/>
       <c r="AT597" s="4"/>
     </row>
-    <row r="598" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -57708,7 +57714,7 @@
       <c r="AS598" s="4"/>
       <c r="AT598" s="4"/>
     </row>
-    <row r="599" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -57756,7 +57762,7 @@
       <c r="AS599" s="4"/>
       <c r="AT599" s="4"/>
     </row>
-    <row r="600" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -57804,7 +57810,7 @@
       <c r="AS600" s="4"/>
       <c r="AT600" s="4"/>
     </row>
-    <row r="601" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -57852,7 +57858,7 @@
       <c r="AS601" s="4"/>
       <c r="AT601" s="4"/>
     </row>
-    <row r="602" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -57900,7 +57906,7 @@
       <c r="AS602" s="4"/>
       <c r="AT602" s="4"/>
     </row>
-    <row r="603" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -57948,7 +57954,7 @@
       <c r="AS603" s="4"/>
       <c r="AT603" s="4"/>
     </row>
-    <row r="604" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -57996,7 +58002,7 @@
       <c r="AS604" s="4"/>
       <c r="AT604" s="4"/>
     </row>
-    <row r="605" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -58044,7 +58050,7 @@
       <c r="AS605" s="4"/>
       <c r="AT605" s="4"/>
     </row>
-    <row r="606" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -58092,7 +58098,7 @@
       <c r="AS606" s="4"/>
       <c r="AT606" s="4"/>
     </row>
-    <row r="607" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -58140,7 +58146,7 @@
       <c r="AS607" s="4"/>
       <c r="AT607" s="4"/>
     </row>
-    <row r="608" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -58188,7 +58194,7 @@
       <c r="AS608" s="4"/>
       <c r="AT608" s="4"/>
     </row>
-    <row r="609" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -58236,7 +58242,7 @@
       <c r="AS609" s="4"/>
       <c r="AT609" s="4"/>
     </row>
-    <row r="610" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -58284,7 +58290,7 @@
       <c r="AS610" s="4"/>
       <c r="AT610" s="4"/>
     </row>
-    <row r="611" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -58332,7 +58338,7 @@
       <c r="AS611" s="4"/>
       <c r="AT611" s="4"/>
     </row>
-    <row r="612" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -58380,7 +58386,7 @@
       <c r="AS612" s="4"/>
       <c r="AT612" s="4"/>
     </row>
-    <row r="613" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -58428,7 +58434,7 @@
       <c r="AS613" s="4"/>
       <c r="AT613" s="4"/>
     </row>
-    <row r="614" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -58476,7 +58482,7 @@
       <c r="AS614" s="4"/>
       <c r="AT614" s="4"/>
     </row>
-    <row r="615" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -58524,7 +58530,7 @@
       <c r="AS615" s="4"/>
       <c r="AT615" s="4"/>
     </row>
-    <row r="616" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -58572,7 +58578,7 @@
       <c r="AS616" s="4"/>
       <c r="AT616" s="4"/>
     </row>
-    <row r="617" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -58620,7 +58626,7 @@
       <c r="AS617" s="4"/>
       <c r="AT617" s="4"/>
     </row>
-    <row r="618" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -58668,7 +58674,7 @@
       <c r="AS618" s="4"/>
       <c r="AT618" s="4"/>
     </row>
-    <row r="619" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -58716,7 +58722,7 @@
       <c r="AS619" s="4"/>
       <c r="AT619" s="4"/>
     </row>
-    <row r="620" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -58764,7 +58770,7 @@
       <c r="AS620" s="4"/>
       <c r="AT620" s="4"/>
     </row>
-    <row r="621" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -58812,7 +58818,7 @@
       <c r="AS621" s="4"/>
       <c r="AT621" s="4"/>
     </row>
-    <row r="622" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -58860,7 +58866,7 @@
       <c r="AS622" s="4"/>
       <c r="AT622" s="4"/>
     </row>
-    <row r="623" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -58908,7 +58914,7 @@
       <c r="AS623" s="4"/>
       <c r="AT623" s="4"/>
     </row>
-    <row r="624" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -58956,7 +58962,7 @@
       <c r="AS624" s="4"/>
       <c r="AT624" s="4"/>
     </row>
-    <row r="625" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -59004,7 +59010,7 @@
       <c r="AS625" s="4"/>
       <c r="AT625" s="4"/>
     </row>
-    <row r="626" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -59052,7 +59058,7 @@
       <c r="AS626" s="4"/>
       <c r="AT626" s="4"/>
     </row>
-    <row r="627" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -59100,7 +59106,7 @@
       <c r="AS627" s="4"/>
       <c r="AT627" s="4"/>
     </row>
-    <row r="628" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -59148,7 +59154,7 @@
       <c r="AS628" s="4"/>
       <c r="AT628" s="4"/>
     </row>
-    <row r="629" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -59196,7 +59202,7 @@
       <c r="AS629" s="4"/>
       <c r="AT629" s="4"/>
     </row>
-    <row r="630" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -59244,7 +59250,7 @@
       <c r="AS630" s="4"/>
       <c r="AT630" s="4"/>
     </row>
-    <row r="631" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -59292,7 +59298,7 @@
       <c r="AS631" s="4"/>
       <c r="AT631" s="4"/>
     </row>
-    <row r="632" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -59340,7 +59346,7 @@
       <c r="AS632" s="4"/>
       <c r="AT632" s="4"/>
     </row>
-    <row r="633" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -59388,7 +59394,7 @@
       <c r="AS633" s="4"/>
       <c r="AT633" s="4"/>
     </row>
-    <row r="634" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -59436,7 +59442,7 @@
       <c r="AS634" s="4"/>
       <c r="AT634" s="4"/>
     </row>
-    <row r="635" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -59484,7 +59490,7 @@
       <c r="AS635" s="4"/>
       <c r="AT635" s="4"/>
     </row>
-    <row r="636" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -59532,7 +59538,7 @@
       <c r="AS636" s="4"/>
       <c r="AT636" s="4"/>
     </row>
-    <row r="637" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -59580,7 +59586,7 @@
       <c r="AS637" s="4"/>
       <c r="AT637" s="4"/>
     </row>
-    <row r="638" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -59628,7 +59634,7 @@
       <c r="AS638" s="4"/>
       <c r="AT638" s="4"/>
     </row>
-    <row r="639" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -59676,7 +59682,7 @@
       <c r="AS639" s="4"/>
       <c r="AT639" s="4"/>
     </row>
-    <row r="640" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -59724,7 +59730,7 @@
       <c r="AS640" s="4"/>
       <c r="AT640" s="4"/>
     </row>
-    <row r="641" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -59772,7 +59778,7 @@
       <c r="AS641" s="4"/>
       <c r="AT641" s="4"/>
     </row>
-    <row r="642" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -59820,7 +59826,7 @@
       <c r="AS642" s="4"/>
       <c r="AT642" s="4"/>
     </row>
-    <row r="643" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -59868,7 +59874,7 @@
       <c r="AS643" s="4"/>
       <c r="AT643" s="4"/>
     </row>
-    <row r="644" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -59916,7 +59922,7 @@
       <c r="AS644" s="4"/>
       <c r="AT644" s="4"/>
     </row>
-    <row r="645" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -59964,7 +59970,7 @@
       <c r="AS645" s="4"/>
       <c r="AT645" s="4"/>
     </row>
-    <row r="646" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -60012,7 +60018,7 @@
       <c r="AS646" s="4"/>
       <c r="AT646" s="4"/>
     </row>
-    <row r="647" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -60060,7 +60066,7 @@
       <c r="AS647" s="4"/>
       <c r="AT647" s="4"/>
     </row>
-    <row r="648" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -60108,7 +60114,7 @@
       <c r="AS648" s="4"/>
       <c r="AT648" s="4"/>
     </row>
-    <row r="649" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -60156,7 +60162,7 @@
       <c r="AS649" s="4"/>
       <c r="AT649" s="4"/>
     </row>
-    <row r="650" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -60204,7 +60210,7 @@
       <c r="AS650" s="4"/>
       <c r="AT650" s="4"/>
     </row>
-    <row r="651" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -60252,7 +60258,7 @@
       <c r="AS651" s="4"/>
       <c r="AT651" s="4"/>
     </row>
-    <row r="652" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -60300,7 +60306,7 @@
       <c r="AS652" s="4"/>
       <c r="AT652" s="4"/>
     </row>
-    <row r="653" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -60348,7 +60354,7 @@
       <c r="AS653" s="4"/>
       <c r="AT653" s="4"/>
     </row>
-    <row r="654" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -60396,7 +60402,7 @@
       <c r="AS654" s="4"/>
       <c r="AT654" s="4"/>
     </row>
-    <row r="655" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -60444,7 +60450,7 @@
       <c r="AS655" s="4"/>
       <c r="AT655" s="4"/>
     </row>
-    <row r="656" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -60492,7 +60498,7 @@
       <c r="AS656" s="4"/>
       <c r="AT656" s="4"/>
     </row>
-    <row r="657" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -60540,7 +60546,7 @@
       <c r="AS657" s="4"/>
       <c r="AT657" s="4"/>
     </row>
-    <row r="658" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -60588,7 +60594,7 @@
       <c r="AS658" s="4"/>
       <c r="AT658" s="4"/>
     </row>
-    <row r="659" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -60636,7 +60642,7 @@
       <c r="AS659" s="4"/>
       <c r="AT659" s="4"/>
     </row>
-    <row r="660" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -60684,7 +60690,7 @@
       <c r="AS660" s="4"/>
       <c r="AT660" s="4"/>
     </row>
-    <row r="661" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -60732,7 +60738,7 @@
       <c r="AS661" s="4"/>
       <c r="AT661" s="4"/>
     </row>
-    <row r="662" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -60780,7 +60786,7 @@
       <c r="AS662" s="4"/>
       <c r="AT662" s="4"/>
     </row>
-    <row r="663" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -60828,7 +60834,7 @@
       <c r="AS663" s="4"/>
       <c r="AT663" s="4"/>
     </row>
-    <row r="664" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -60876,7 +60882,7 @@
       <c r="AS664" s="4"/>
       <c r="AT664" s="4"/>
     </row>
-    <row r="665" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -60924,7 +60930,7 @@
       <c r="AS665" s="4"/>
       <c r="AT665" s="4"/>
     </row>
-    <row r="666" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -60972,7 +60978,7 @@
       <c r="AS666" s="4"/>
       <c r="AT666" s="4"/>
     </row>
-    <row r="667" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -61020,7 +61026,7 @@
       <c r="AS667" s="4"/>
       <c r="AT667" s="4"/>
     </row>
-    <row r="668" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -61068,7 +61074,7 @@
       <c r="AS668" s="4"/>
       <c r="AT668" s="4"/>
     </row>
-    <row r="669" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -61116,7 +61122,7 @@
       <c r="AS669" s="4"/>
       <c r="AT669" s="4"/>
     </row>
-    <row r="670" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -61164,7 +61170,7 @@
       <c r="AS670" s="4"/>
       <c r="AT670" s="4"/>
     </row>
-    <row r="671" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -61212,7 +61218,7 @@
       <c r="AS671" s="4"/>
       <c r="AT671" s="4"/>
     </row>
-    <row r="672" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -61260,7 +61266,7 @@
       <c r="AS672" s="4"/>
       <c r="AT672" s="4"/>
     </row>
-    <row r="673" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -61308,7 +61314,7 @@
       <c r="AS673" s="4"/>
       <c r="AT673" s="4"/>
     </row>
-    <row r="674" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -61356,7 +61362,7 @@
       <c r="AS674" s="4"/>
       <c r="AT674" s="4"/>
     </row>
-    <row r="675" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -61404,7 +61410,7 @@
       <c r="AS675" s="4"/>
       <c r="AT675" s="4"/>
     </row>
-    <row r="676" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -61452,7 +61458,7 @@
       <c r="AS676" s="4"/>
       <c r="AT676" s="4"/>
     </row>
-    <row r="677" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -61500,7 +61506,7 @@
       <c r="AS677" s="4"/>
       <c r="AT677" s="4"/>
     </row>
-    <row r="678" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -61548,7 +61554,7 @@
       <c r="AS678" s="4"/>
       <c r="AT678" s="4"/>
     </row>
-    <row r="679" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -61596,7 +61602,7 @@
       <c r="AS679" s="4"/>
       <c r="AT679" s="4"/>
     </row>
-    <row r="680" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -61644,7 +61650,7 @@
       <c r="AS680" s="4"/>
       <c r="AT680" s="4"/>
     </row>
-    <row r="681" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -61692,7 +61698,7 @@
       <c r="AS681" s="4"/>
       <c r="AT681" s="4"/>
     </row>
-    <row r="682" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -61740,7 +61746,7 @@
       <c r="AS682" s="4"/>
       <c r="AT682" s="4"/>
     </row>
-    <row r="683" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -61788,7 +61794,7 @@
       <c r="AS683" s="4"/>
       <c r="AT683" s="4"/>
     </row>
-    <row r="684" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -61836,7 +61842,7 @@
       <c r="AS684" s="4"/>
       <c r="AT684" s="4"/>
     </row>
-    <row r="685" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -61884,7 +61890,7 @@
       <c r="AS685" s="4"/>
       <c r="AT685" s="4"/>
     </row>
-    <row r="686" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -61932,7 +61938,7 @@
       <c r="AS686" s="4"/>
       <c r="AT686" s="4"/>
     </row>
-    <row r="687" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -61980,7 +61986,7 @@
       <c r="AS687" s="4"/>
       <c r="AT687" s="4"/>
     </row>
-    <row r="688" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -62028,7 +62034,7 @@
       <c r="AS688" s="4"/>
       <c r="AT688" s="4"/>
     </row>
-    <row r="689" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -62076,7 +62082,7 @@
       <c r="AS689" s="4"/>
       <c r="AT689" s="4"/>
     </row>
-    <row r="690" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -62124,7 +62130,7 @@
       <c r="AS690" s="4"/>
       <c r="AT690" s="4"/>
     </row>
-    <row r="691" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -62172,7 +62178,7 @@
       <c r="AS691" s="4"/>
       <c r="AT691" s="4"/>
     </row>
-    <row r="692" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -62220,7 +62226,7 @@
       <c r="AS692" s="4"/>
       <c r="AT692" s="4"/>
     </row>
-    <row r="693" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -62268,7 +62274,7 @@
       <c r="AS693" s="4"/>
       <c r="AT693" s="4"/>
     </row>
-    <row r="694" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -62316,7 +62322,7 @@
       <c r="AS694" s="4"/>
       <c r="AT694" s="4"/>
     </row>
-    <row r="695" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -62364,7 +62370,7 @@
       <c r="AS695" s="4"/>
       <c r="AT695" s="4"/>
     </row>
-    <row r="696" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -62412,7 +62418,7 @@
       <c r="AS696" s="4"/>
       <c r="AT696" s="4"/>
     </row>
-    <row r="697" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -62460,7 +62466,7 @@
       <c r="AS697" s="4"/>
       <c r="AT697" s="4"/>
     </row>
-    <row r="698" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -62508,7 +62514,7 @@
       <c r="AS698" s="4"/>
       <c r="AT698" s="4"/>
     </row>
-    <row r="699" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -62556,7 +62562,7 @@
       <c r="AS699" s="4"/>
       <c r="AT699" s="4"/>
     </row>
-    <row r="700" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -62604,7 +62610,7 @@
       <c r="AS700" s="4"/>
       <c r="AT700" s="4"/>
     </row>
-    <row r="701" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -62652,7 +62658,7 @@
       <c r="AS701" s="4"/>
       <c r="AT701" s="4"/>
     </row>
-    <row r="702" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -62700,7 +62706,7 @@
       <c r="AS702" s="4"/>
       <c r="AT702" s="4"/>
     </row>
-    <row r="703" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -62748,7 +62754,7 @@
       <c r="AS703" s="4"/>
       <c r="AT703" s="4"/>
     </row>
-    <row r="704" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -62796,7 +62802,7 @@
       <c r="AS704" s="4"/>
       <c r="AT704" s="4"/>
     </row>
-    <row r="705" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -62844,7 +62850,7 @@
       <c r="AS705" s="4"/>
       <c r="AT705" s="4"/>
     </row>
-    <row r="706" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -62892,7 +62898,7 @@
       <c r="AS706" s="4"/>
       <c r="AT706" s="4"/>
     </row>
-    <row r="707" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -62940,7 +62946,7 @@
       <c r="AS707" s="4"/>
       <c r="AT707" s="4"/>
     </row>
-    <row r="708" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -62988,7 +62994,7 @@
       <c r="AS708" s="4"/>
       <c r="AT708" s="4"/>
     </row>
-    <row r="709" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -63036,7 +63042,7 @@
       <c r="AS709" s="4"/>
       <c r="AT709" s="4"/>
     </row>
-    <row r="710" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -63084,7 +63090,7 @@
       <c r="AS710" s="4"/>
       <c r="AT710" s="4"/>
     </row>
-    <row r="711" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -63132,7 +63138,7 @@
       <c r="AS711" s="4"/>
       <c r="AT711" s="4"/>
     </row>
-    <row r="712" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -63180,7 +63186,7 @@
       <c r="AS712" s="4"/>
       <c r="AT712" s="4"/>
     </row>
-    <row r="713" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -63228,7 +63234,7 @@
       <c r="AS713" s="4"/>
       <c r="AT713" s="4"/>
     </row>
-    <row r="714" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -63276,7 +63282,7 @@
       <c r="AS714" s="4"/>
       <c r="AT714" s="4"/>
     </row>
-    <row r="715" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -63324,7 +63330,7 @@
       <c r="AS715" s="4"/>
       <c r="AT715" s="4"/>
     </row>
-    <row r="716" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -63372,7 +63378,7 @@
       <c r="AS716" s="4"/>
       <c r="AT716" s="4"/>
     </row>
-    <row r="717" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -63420,7 +63426,7 @@
       <c r="AS717" s="4"/>
       <c r="AT717" s="4"/>
     </row>
-    <row r="718" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -63468,7 +63474,7 @@
       <c r="AS718" s="4"/>
       <c r="AT718" s="4"/>
     </row>
-    <row r="719" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -63516,7 +63522,7 @@
       <c r="AS719" s="4"/>
       <c r="AT719" s="4"/>
     </row>
-    <row r="720" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -63564,7 +63570,7 @@
       <c r="AS720" s="4"/>
       <c r="AT720" s="4"/>
     </row>
-    <row r="721" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -63612,7 +63618,7 @@
       <c r="AS721" s="4"/>
       <c r="AT721" s="4"/>
     </row>
-    <row r="722" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -63660,7 +63666,7 @@
       <c r="AS722" s="4"/>
       <c r="AT722" s="4"/>
     </row>
-    <row r="723" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -63708,7 +63714,7 @@
       <c r="AS723" s="4"/>
       <c r="AT723" s="4"/>
     </row>
-    <row r="724" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -63756,7 +63762,7 @@
       <c r="AS724" s="4"/>
       <c r="AT724" s="4"/>
     </row>
-    <row r="725" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -63804,7 +63810,7 @@
       <c r="AS725" s="4"/>
       <c r="AT725" s="4"/>
     </row>
-    <row r="726" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -63852,7 +63858,7 @@
       <c r="AS726" s="4"/>
       <c r="AT726" s="4"/>
     </row>
-    <row r="727" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -63900,7 +63906,7 @@
       <c r="AS727" s="4"/>
       <c r="AT727" s="4"/>
     </row>
-    <row r="728" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -63948,7 +63954,7 @@
       <c r="AS728" s="4"/>
       <c r="AT728" s="4"/>
     </row>
-    <row r="729" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -63996,7 +64002,7 @@
       <c r="AS729" s="4"/>
       <c r="AT729" s="4"/>
     </row>
-    <row r="730" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -64044,7 +64050,7 @@
       <c r="AS730" s="4"/>
       <c r="AT730" s="4"/>
     </row>
-    <row r="731" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -64092,7 +64098,7 @@
       <c r="AS731" s="4"/>
       <c r="AT731" s="4"/>
     </row>
-    <row r="732" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -64140,7 +64146,7 @@
       <c r="AS732" s="4"/>
       <c r="AT732" s="4"/>
     </row>
-    <row r="733" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -64188,7 +64194,7 @@
       <c r="AS733" s="4"/>
       <c r="AT733" s="4"/>
     </row>
-    <row r="734" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -64236,7 +64242,7 @@
       <c r="AS734" s="4"/>
       <c r="AT734" s="4"/>
     </row>
-    <row r="735" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -64284,7 +64290,7 @@
       <c r="AS735" s="4"/>
       <c r="AT735" s="4"/>
     </row>
-    <row r="736" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -64332,7 +64338,7 @@
       <c r="AS736" s="4"/>
       <c r="AT736" s="4"/>
     </row>
-    <row r="737" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -64380,7 +64386,7 @@
       <c r="AS737" s="4"/>
       <c r="AT737" s="4"/>
     </row>
-    <row r="738" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -64428,7 +64434,7 @@
       <c r="AS738" s="4"/>
       <c r="AT738" s="4"/>
     </row>
-    <row r="739" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -64476,7 +64482,7 @@
       <c r="AS739" s="4"/>
       <c r="AT739" s="4"/>
     </row>
-    <row r="740" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -64524,7 +64530,7 @@
       <c r="AS740" s="4"/>
       <c r="AT740" s="4"/>
     </row>
-    <row r="741" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -64572,7 +64578,7 @@
       <c r="AS741" s="4"/>
       <c r="AT741" s="4"/>
     </row>
-    <row r="742" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -64620,7 +64626,7 @@
       <c r="AS742" s="4"/>
       <c r="AT742" s="4"/>
     </row>
-    <row r="743" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -64668,7 +64674,7 @@
       <c r="AS743" s="4"/>
       <c r="AT743" s="4"/>
     </row>
-    <row r="744" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -64716,7 +64722,7 @@
       <c r="AS744" s="4"/>
       <c r="AT744" s="4"/>
     </row>
-    <row r="745" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -64764,7 +64770,7 @@
       <c r="AS745" s="4"/>
       <c r="AT745" s="4"/>
     </row>
-    <row r="746" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -64812,7 +64818,7 @@
       <c r="AS746" s="4"/>
       <c r="AT746" s="4"/>
     </row>
-    <row r="747" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -64860,7 +64866,7 @@
       <c r="AS747" s="4"/>
       <c r="AT747" s="4"/>
     </row>
-    <row r="748" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -64908,7 +64914,7 @@
       <c r="AS748" s="4"/>
       <c r="AT748" s="4"/>
     </row>
-    <row r="749" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -64956,7 +64962,7 @@
       <c r="AS749" s="4"/>
       <c r="AT749" s="4"/>
     </row>
-    <row r="750" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -65004,7 +65010,7 @@
       <c r="AS750" s="4"/>
       <c r="AT750" s="4"/>
     </row>
-    <row r="751" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -65052,7 +65058,7 @@
       <c r="AS751" s="4"/>
       <c r="AT751" s="4"/>
     </row>
-    <row r="752" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -65100,7 +65106,7 @@
       <c r="AS752" s="4"/>
       <c r="AT752" s="4"/>
     </row>
-    <row r="753" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -65148,7 +65154,7 @@
       <c r="AS753" s="4"/>
       <c r="AT753" s="4"/>
     </row>
-    <row r="754" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -65196,7 +65202,7 @@
       <c r="AS754" s="4"/>
       <c r="AT754" s="4"/>
     </row>
-    <row r="755" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -65244,7 +65250,7 @@
       <c r="AS755" s="4"/>
       <c r="AT755" s="4"/>
     </row>
-    <row r="756" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -65292,7 +65298,7 @@
       <c r="AS756" s="4"/>
       <c r="AT756" s="4"/>
     </row>
-    <row r="757" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -65340,7 +65346,7 @@
       <c r="AS757" s="4"/>
       <c r="AT757" s="4"/>
     </row>
-    <row r="758" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -65388,7 +65394,7 @@
       <c r="AS758" s="4"/>
       <c r="AT758" s="4"/>
     </row>
-    <row r="759" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -65436,7 +65442,7 @@
       <c r="AS759" s="4"/>
       <c r="AT759" s="4"/>
     </row>
-    <row r="760" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -65484,7 +65490,7 @@
       <c r="AS760" s="4"/>
       <c r="AT760" s="4"/>
     </row>
-    <row r="761" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -65532,7 +65538,7 @@
       <c r="AS761" s="4"/>
       <c r="AT761" s="4"/>
     </row>
-    <row r="762" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -65580,7 +65586,7 @@
       <c r="AS762" s="4"/>
       <c r="AT762" s="4"/>
     </row>
-    <row r="763" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -65628,7 +65634,7 @@
       <c r="AS763" s="4"/>
       <c r="AT763" s="4"/>
     </row>
-    <row r="764" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -65676,7 +65682,7 @@
       <c r="AS764" s="4"/>
       <c r="AT764" s="4"/>
     </row>
-    <row r="765" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -65724,7 +65730,7 @@
       <c r="AS765" s="4"/>
       <c r="AT765" s="4"/>
     </row>
-    <row r="766" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -65772,7 +65778,7 @@
       <c r="AS766" s="4"/>
       <c r="AT766" s="4"/>
     </row>
-    <row r="767" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -65820,7 +65826,7 @@
       <c r="AS767" s="4"/>
       <c r="AT767" s="4"/>
     </row>
-    <row r="768" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -65868,7 +65874,7 @@
       <c r="AS768" s="4"/>
       <c r="AT768" s="4"/>
     </row>
-    <row r="769" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -65916,7 +65922,7 @@
       <c r="AS769" s="4"/>
       <c r="AT769" s="4"/>
     </row>
-    <row r="770" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -65964,7 +65970,7 @@
       <c r="AS770" s="4"/>
       <c r="AT770" s="4"/>
     </row>
-    <row r="771" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -66012,7 +66018,7 @@
       <c r="AS771" s="4"/>
       <c r="AT771" s="4"/>
     </row>
-    <row r="772" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -66060,7 +66066,7 @@
       <c r="AS772" s="4"/>
       <c r="AT772" s="4"/>
     </row>
-    <row r="773" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -66108,7 +66114,7 @@
       <c r="AS773" s="4"/>
       <c r="AT773" s="4"/>
     </row>
-    <row r="774" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -66156,7 +66162,7 @@
       <c r="AS774" s="4"/>
       <c r="AT774" s="4"/>
     </row>
-    <row r="775" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -66204,7 +66210,7 @@
       <c r="AS775" s="4"/>
       <c r="AT775" s="4"/>
     </row>
-    <row r="776" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -66252,7 +66258,7 @@
       <c r="AS776" s="4"/>
       <c r="AT776" s="4"/>
     </row>
-    <row r="777" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -66300,7 +66306,7 @@
       <c r="AS777" s="4"/>
       <c r="AT777" s="4"/>
     </row>
-    <row r="778" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -66348,7 +66354,7 @@
       <c r="AS778" s="4"/>
       <c r="AT778" s="4"/>
     </row>
-    <row r="779" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -66396,7 +66402,7 @@
       <c r="AS779" s="4"/>
       <c r="AT779" s="4"/>
     </row>
-    <row r="780" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -66444,7 +66450,7 @@
       <c r="AS780" s="4"/>
       <c r="AT780" s="4"/>
     </row>
-    <row r="781" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -66492,7 +66498,7 @@
       <c r="AS781" s="4"/>
       <c r="AT781" s="4"/>
     </row>
-    <row r="782" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -66540,7 +66546,7 @@
       <c r="AS782" s="4"/>
       <c r="AT782" s="4"/>
     </row>
-    <row r="783" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -66588,7 +66594,7 @@
       <c r="AS783" s="4"/>
       <c r="AT783" s="4"/>
     </row>
-    <row r="784" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -66636,7 +66642,7 @@
       <c r="AS784" s="4"/>
       <c r="AT784" s="4"/>
     </row>
-    <row r="785" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -66684,7 +66690,7 @@
       <c r="AS785" s="4"/>
       <c r="AT785" s="4"/>
     </row>
-    <row r="786" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -66732,7 +66738,7 @@
       <c r="AS786" s="4"/>
       <c r="AT786" s="4"/>
     </row>
-    <row r="787" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -66780,7 +66786,7 @@
       <c r="AS787" s="4"/>
       <c r="AT787" s="4"/>
     </row>
-    <row r="788" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -66828,7 +66834,7 @@
       <c r="AS788" s="4"/>
       <c r="AT788" s="4"/>
     </row>
-    <row r="789" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -66876,7 +66882,7 @@
       <c r="AS789" s="4"/>
       <c r="AT789" s="4"/>
     </row>
-    <row r="790" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -66924,7 +66930,7 @@
       <c r="AS790" s="4"/>
       <c r="AT790" s="4"/>
     </row>
-    <row r="791" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -66972,7 +66978,7 @@
       <c r="AS791" s="4"/>
       <c r="AT791" s="4"/>
     </row>
-    <row r="792" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -67020,7 +67026,7 @@
       <c r="AS792" s="4"/>
       <c r="AT792" s="4"/>
     </row>
-    <row r="793" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -67068,7 +67074,7 @@
       <c r="AS793" s="4"/>
       <c r="AT793" s="4"/>
     </row>
-    <row r="794" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -67116,7 +67122,7 @@
       <c r="AS794" s="4"/>
       <c r="AT794" s="4"/>
     </row>
-    <row r="795" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -67164,7 +67170,7 @@
       <c r="AS795" s="4"/>
       <c r="AT795" s="4"/>
     </row>
-    <row r="796" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -67212,7 +67218,7 @@
       <c r="AS796" s="4"/>
       <c r="AT796" s="4"/>
     </row>
-    <row r="797" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -67260,7 +67266,7 @@
       <c r="AS797" s="4"/>
       <c r="AT797" s="4"/>
     </row>
-    <row r="798" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -67308,7 +67314,7 @@
       <c r="AS798" s="4"/>
       <c r="AT798" s="4"/>
     </row>
-    <row r="799" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -67356,7 +67362,7 @@
       <c r="AS799" s="4"/>
       <c r="AT799" s="4"/>
     </row>
-    <row r="800" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -67404,7 +67410,7 @@
       <c r="AS800" s="4"/>
       <c r="AT800" s="4"/>
     </row>
-    <row r="801" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -67452,7 +67458,7 @@
       <c r="AS801" s="4"/>
       <c r="AT801" s="4"/>
     </row>
-    <row r="802" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -67500,7 +67506,7 @@
       <c r="AS802" s="4"/>
       <c r="AT802" s="4"/>
     </row>
-    <row r="803" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -67548,7 +67554,7 @@
       <c r="AS803" s="4"/>
       <c r="AT803" s="4"/>
     </row>
-    <row r="804" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -67596,7 +67602,7 @@
       <c r="AS804" s="4"/>
       <c r="AT804" s="4"/>
     </row>
-    <row r="805" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -67644,7 +67650,7 @@
       <c r="AS805" s="4"/>
       <c r="AT805" s="4"/>
     </row>
-    <row r="806" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -67692,7 +67698,7 @@
       <c r="AS806" s="4"/>
       <c r="AT806" s="4"/>
     </row>
-    <row r="807" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -67740,7 +67746,7 @@
       <c r="AS807" s="4"/>
       <c r="AT807" s="4"/>
     </row>
-    <row r="808" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -67788,7 +67794,7 @@
       <c r="AS808" s="4"/>
       <c r="AT808" s="4"/>
     </row>
-    <row r="809" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -67836,7 +67842,7 @@
       <c r="AS809" s="4"/>
       <c r="AT809" s="4"/>
     </row>
-    <row r="810" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -67884,7 +67890,7 @@
       <c r="AS810" s="4"/>
       <c r="AT810" s="4"/>
     </row>
-    <row r="811" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -67932,7 +67938,7 @@
       <c r="AS811" s="4"/>
       <c r="AT811" s="4"/>
     </row>
-    <row r="812" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -67980,7 +67986,7 @@
       <c r="AS812" s="4"/>
       <c r="AT812" s="4"/>
     </row>
-    <row r="813" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -68028,7 +68034,7 @@
       <c r="AS813" s="4"/>
       <c r="AT813" s="4"/>
     </row>
-    <row r="814" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -68076,7 +68082,7 @@
       <c r="AS814" s="4"/>
       <c r="AT814" s="4"/>
     </row>
-    <row r="815" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -68124,7 +68130,7 @@
       <c r="AS815" s="4"/>
       <c r="AT815" s="4"/>
     </row>
-    <row r="816" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -68172,7 +68178,7 @@
       <c r="AS816" s="4"/>
       <c r="AT816" s="4"/>
     </row>
-    <row r="817" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -68220,7 +68226,7 @@
       <c r="AS817" s="4"/>
       <c r="AT817" s="4"/>
     </row>
-    <row r="818" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -68268,7 +68274,7 @@
       <c r="AS818" s="4"/>
       <c r="AT818" s="4"/>
     </row>
-    <row r="819" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -68316,7 +68322,7 @@
       <c r="AS819" s="4"/>
       <c r="AT819" s="4"/>
     </row>
-    <row r="820" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -68364,7 +68370,7 @@
       <c r="AS820" s="4"/>
       <c r="AT820" s="4"/>
     </row>
-    <row r="821" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -68412,7 +68418,7 @@
       <c r="AS821" s="4"/>
       <c r="AT821" s="4"/>
     </row>
-    <row r="822" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -68460,7 +68466,7 @@
       <c r="AS822" s="4"/>
       <c r="AT822" s="4"/>
     </row>
-    <row r="823" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -68508,7 +68514,7 @@
       <c r="AS823" s="4"/>
       <c r="AT823" s="4"/>
     </row>
-    <row r="824" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -68556,7 +68562,7 @@
       <c r="AS824" s="4"/>
       <c r="AT824" s="4"/>
     </row>
-    <row r="825" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -68604,7 +68610,7 @@
       <c r="AS825" s="4"/>
       <c r="AT825" s="4"/>
     </row>
-    <row r="826" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -68652,7 +68658,7 @@
       <c r="AS826" s="4"/>
       <c r="AT826" s="4"/>
     </row>
-    <row r="827" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -68700,7 +68706,7 @@
       <c r="AS827" s="4"/>
       <c r="AT827" s="4"/>
     </row>
-    <row r="828" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -68748,7 +68754,7 @@
       <c r="AS828" s="4"/>
       <c r="AT828" s="4"/>
     </row>
-    <row r="829" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -68796,7 +68802,7 @@
       <c r="AS829" s="4"/>
       <c r="AT829" s="4"/>
     </row>
-    <row r="830" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -68844,7 +68850,7 @@
       <c r="AS830" s="4"/>
       <c r="AT830" s="4"/>
     </row>
-    <row r="831" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -68892,7 +68898,7 @@
       <c r="AS831" s="4"/>
       <c r="AT831" s="4"/>
     </row>
-    <row r="832" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -68940,7 +68946,7 @@
       <c r="AS832" s="4"/>
       <c r="AT832" s="4"/>
     </row>
-    <row r="833" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -68988,7 +68994,7 @@
       <c r="AS833" s="4"/>
       <c r="AT833" s="4"/>
     </row>
-    <row r="834" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -69036,7 +69042,7 @@
       <c r="AS834" s="4"/>
       <c r="AT834" s="4"/>
     </row>
-    <row r="835" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -69084,7 +69090,7 @@
       <c r="AS835" s="4"/>
       <c r="AT835" s="4"/>
     </row>
-    <row r="836" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -69132,7 +69138,7 @@
       <c r="AS836" s="4"/>
       <c r="AT836" s="4"/>
     </row>
-    <row r="837" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -69180,7 +69186,7 @@
       <c r="AS837" s="4"/>
       <c r="AT837" s="4"/>
     </row>
-    <row r="838" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -69228,7 +69234,7 @@
       <c r="AS838" s="4"/>
       <c r="AT838" s="4"/>
     </row>
-    <row r="839" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -69276,7 +69282,7 @@
       <c r="AS839" s="4"/>
       <c r="AT839" s="4"/>
     </row>
-    <row r="840" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -69324,7 +69330,7 @@
       <c r="AS840" s="4"/>
       <c r="AT840" s="4"/>
     </row>
-    <row r="841" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -69372,7 +69378,7 @@
       <c r="AS841" s="4"/>
       <c r="AT841" s="4"/>
     </row>
-    <row r="842" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -69420,7 +69426,7 @@
       <c r="AS842" s="4"/>
       <c r="AT842" s="4"/>
     </row>
-    <row r="843" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -69468,7 +69474,7 @@
       <c r="AS843" s="4"/>
       <c r="AT843" s="4"/>
     </row>
-    <row r="844" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -69516,7 +69522,7 @@
       <c r="AS844" s="4"/>
       <c r="AT844" s="4"/>
     </row>
-    <row r="845" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -69564,7 +69570,7 @@
       <c r="AS845" s="4"/>
       <c r="AT845" s="4"/>
     </row>
-    <row r="846" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -69612,7 +69618,7 @@
       <c r="AS846" s="4"/>
       <c r="AT846" s="4"/>
     </row>
-    <row r="847" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -69660,7 +69666,7 @@
       <c r="AS847" s="4"/>
       <c r="AT847" s="4"/>
     </row>
-    <row r="848" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -69708,7 +69714,7 @@
       <c r="AS848" s="4"/>
       <c r="AT848" s="4"/>
     </row>
-    <row r="849" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -69756,7 +69762,7 @@
       <c r="AS849" s="4"/>
       <c r="AT849" s="4"/>
     </row>
-    <row r="850" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -69804,7 +69810,7 @@
       <c r="AS850" s="4"/>
       <c r="AT850" s="4"/>
     </row>
-    <row r="851" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -69852,7 +69858,7 @@
       <c r="AS851" s="4"/>
       <c r="AT851" s="4"/>
     </row>
-    <row r="852" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -69900,7 +69906,7 @@
       <c r="AS852" s="4"/>
       <c r="AT852" s="4"/>
     </row>
-    <row r="853" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -69948,7 +69954,7 @@
       <c r="AS853" s="4"/>
       <c r="AT853" s="4"/>
     </row>
-    <row r="854" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -69996,7 +70002,7 @@
       <c r="AS854" s="4"/>
       <c r="AT854" s="4"/>
     </row>
-    <row r="855" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -70044,7 +70050,7 @@
       <c r="AS855" s="4"/>
       <c r="AT855" s="4"/>
     </row>
-    <row r="856" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -70092,7 +70098,7 @@
       <c r="AS856" s="4"/>
       <c r="AT856" s="4"/>
     </row>
-    <row r="857" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -70140,7 +70146,7 @@
       <c r="AS857" s="4"/>
       <c r="AT857" s="4"/>
     </row>
-    <row r="858" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -70188,7 +70194,7 @@
       <c r="AS858" s="4"/>
       <c r="AT858" s="4"/>
     </row>
-    <row r="859" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -70236,7 +70242,7 @@
       <c r="AS859" s="4"/>
       <c r="AT859" s="4"/>
     </row>
-    <row r="860" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -70284,7 +70290,7 @@
       <c r="AS860" s="4"/>
       <c r="AT860" s="4"/>
     </row>
-    <row r="861" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -70332,7 +70338,7 @@
       <c r="AS861" s="4"/>
       <c r="AT861" s="4"/>
     </row>
-    <row r="862" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -70380,7 +70386,7 @@
       <c r="AS862" s="4"/>
       <c r="AT862" s="4"/>
     </row>
-    <row r="863" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -70428,7 +70434,7 @@
       <c r="AS863" s="4"/>
       <c r="AT863" s="4"/>
     </row>
-    <row r="864" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -70476,7 +70482,7 @@
       <c r="AS864" s="4"/>
       <c r="AT864" s="4"/>
     </row>
-    <row r="865" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -70524,7 +70530,7 @@
       <c r="AS865" s="4"/>
       <c r="AT865" s="4"/>
     </row>
-    <row r="866" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -70572,7 +70578,7 @@
       <c r="AS866" s="4"/>
       <c r="AT866" s="4"/>
     </row>
-    <row r="867" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -70620,7 +70626,7 @@
       <c r="AS867" s="4"/>
       <c r="AT867" s="4"/>
     </row>
-    <row r="868" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -70668,7 +70674,7 @@
       <c r="AS868" s="4"/>
       <c r="AT868" s="4"/>
     </row>
-    <row r="869" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -70716,7 +70722,7 @@
       <c r="AS869" s="4"/>
       <c r="AT869" s="4"/>
     </row>
-    <row r="870" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -70764,7 +70770,7 @@
       <c r="AS870" s="4"/>
       <c r="AT870" s="4"/>
     </row>
-    <row r="871" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -70812,7 +70818,7 @@
       <c r="AS871" s="4"/>
       <c r="AT871" s="4"/>
     </row>
-    <row r="872" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -70860,7 +70866,7 @@
       <c r="AS872" s="4"/>
       <c r="AT872" s="4"/>
     </row>
-    <row r="873" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -70908,7 +70914,7 @@
       <c r="AS873" s="4"/>
       <c r="AT873" s="4"/>
     </row>
-    <row r="874" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -70956,7 +70962,7 @@
       <c r="AS874" s="4"/>
       <c r="AT874" s="4"/>
     </row>
-    <row r="875" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -71004,7 +71010,7 @@
       <c r="AS875" s="4"/>
       <c r="AT875" s="4"/>
     </row>
-    <row r="876" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -71052,7 +71058,7 @@
       <c r="AS876" s="4"/>
       <c r="AT876" s="4"/>
     </row>
-    <row r="877" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -71100,7 +71106,7 @@
       <c r="AS877" s="4"/>
       <c r="AT877" s="4"/>
     </row>
-    <row r="878" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -71148,7 +71154,7 @@
       <c r="AS878" s="4"/>
       <c r="AT878" s="4"/>
     </row>
-    <row r="879" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -71196,7 +71202,7 @@
       <c r="AS879" s="4"/>
       <c r="AT879" s="4"/>
     </row>
-    <row r="880" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -71244,7 +71250,7 @@
       <c r="AS880" s="4"/>
       <c r="AT880" s="4"/>
     </row>
-    <row r="881" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -71292,7 +71298,7 @@
       <c r="AS881" s="4"/>
       <c r="AT881" s="4"/>
     </row>
-    <row r="882" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -71340,7 +71346,7 @@
       <c r="AS882" s="4"/>
       <c r="AT882" s="4"/>
     </row>
-    <row r="883" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -71388,7 +71394,7 @@
       <c r="AS883" s="4"/>
       <c r="AT883" s="4"/>
     </row>
-    <row r="884" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -71436,7 +71442,7 @@
       <c r="AS884" s="4"/>
       <c r="AT884" s="4"/>
     </row>
-    <row r="885" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -71484,7 +71490,7 @@
       <c r="AS885" s="4"/>
       <c r="AT885" s="4"/>
     </row>
-    <row r="886" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -71532,7 +71538,7 @@
       <c r="AS886" s="4"/>
       <c r="AT886" s="4"/>
     </row>
-    <row r="887" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -71580,7 +71586,7 @@
       <c r="AS887" s="4"/>
       <c r="AT887" s="4"/>
     </row>
-    <row r="888" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -71628,7 +71634,7 @@
       <c r="AS888" s="4"/>
       <c r="AT888" s="4"/>
     </row>
-    <row r="889" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -71676,7 +71682,7 @@
       <c r="AS889" s="4"/>
       <c r="AT889" s="4"/>
     </row>
-    <row r="890" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -71724,7 +71730,7 @@
       <c r="AS890" s="4"/>
       <c r="AT890" s="4"/>
     </row>
-    <row r="891" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -71772,7 +71778,7 @@
       <c r="AS891" s="4"/>
       <c r="AT891" s="4"/>
     </row>
-    <row r="892" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -71820,7 +71826,7 @@
       <c r="AS892" s="4"/>
       <c r="AT892" s="4"/>
     </row>
-    <row r="893" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -71868,7 +71874,7 @@
       <c r="AS893" s="4"/>
       <c r="AT893" s="4"/>
     </row>
-    <row r="894" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -71916,7 +71922,7 @@
       <c r="AS894" s="4"/>
       <c r="AT894" s="4"/>
     </row>
-    <row r="895" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -71964,7 +71970,7 @@
       <c r="AS895" s="4"/>
       <c r="AT895" s="4"/>
     </row>
-    <row r="896" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -72012,7 +72018,7 @@
       <c r="AS896" s="4"/>
       <c r="AT896" s="4"/>
     </row>
-    <row r="897" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -72060,7 +72066,7 @@
       <c r="AS897" s="4"/>
       <c r="AT897" s="4"/>
     </row>
-    <row r="898" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -72108,7 +72114,7 @@
       <c r="AS898" s="4"/>
       <c r="AT898" s="4"/>
     </row>
-    <row r="899" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -72156,7 +72162,7 @@
       <c r="AS899" s="4"/>
       <c r="AT899" s="4"/>
     </row>
-    <row r="900" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -72204,7 +72210,7 @@
       <c r="AS900" s="4"/>
       <c r="AT900" s="4"/>
     </row>
-    <row r="901" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -72252,7 +72258,7 @@
       <c r="AS901" s="4"/>
       <c r="AT901" s="4"/>
     </row>
-    <row r="902" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -72300,7 +72306,7 @@
       <c r="AS902" s="4"/>
       <c r="AT902" s="4"/>
     </row>
-    <row r="903" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -72348,7 +72354,7 @@
       <c r="AS903" s="4"/>
       <c r="AT903" s="4"/>
     </row>
-    <row r="904" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -72396,7 +72402,7 @@
       <c r="AS904" s="4"/>
       <c r="AT904" s="4"/>
     </row>
-    <row r="905" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -72444,7 +72450,7 @@
       <c r="AS905" s="4"/>
       <c r="AT905" s="4"/>
     </row>
-    <row r="906" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -72492,7 +72498,7 @@
       <c r="AS906" s="4"/>
       <c r="AT906" s="4"/>
     </row>
-    <row r="907" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -72540,7 +72546,7 @@
       <c r="AS907" s="4"/>
       <c r="AT907" s="4"/>
     </row>
-    <row r="908" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -72588,7 +72594,7 @@
       <c r="AS908" s="4"/>
       <c r="AT908" s="4"/>
     </row>
-    <row r="909" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -72636,7 +72642,7 @@
       <c r="AS909" s="4"/>
       <c r="AT909" s="4"/>
     </row>
-    <row r="910" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -72684,7 +72690,7 @@
       <c r="AS910" s="4"/>
       <c r="AT910" s="4"/>
     </row>
-    <row r="911" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -72732,7 +72738,7 @@
       <c r="AS911" s="4"/>
       <c r="AT911" s="4"/>
     </row>
-    <row r="912" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -72780,7 +72786,7 @@
       <c r="AS912" s="4"/>
       <c r="AT912" s="4"/>
     </row>
-    <row r="913" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -72828,7 +72834,7 @@
       <c r="AS913" s="4"/>
       <c r="AT913" s="4"/>
     </row>
-    <row r="914" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -72876,7 +72882,7 @@
       <c r="AS914" s="4"/>
       <c r="AT914" s="4"/>
     </row>
-    <row r="915" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -72924,7 +72930,7 @@
       <c r="AS915" s="4"/>
       <c r="AT915" s="4"/>
     </row>
-    <row r="916" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -72972,7 +72978,7 @@
       <c r="AS916" s="4"/>
       <c r="AT916" s="4"/>
     </row>
-    <row r="917" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -73020,7 +73026,7 @@
       <c r="AS917" s="4"/>
       <c r="AT917" s="4"/>
     </row>
-    <row r="918" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -73068,7 +73074,7 @@
       <c r="AS918" s="4"/>
       <c r="AT918" s="4"/>
     </row>
-    <row r="919" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -73116,7 +73122,7 @@
       <c r="AS919" s="4"/>
       <c r="AT919" s="4"/>
     </row>
-    <row r="920" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -73164,7 +73170,7 @@
       <c r="AS920" s="4"/>
       <c r="AT920" s="4"/>
     </row>
-    <row r="921" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -73212,7 +73218,7 @@
       <c r="AS921" s="4"/>
       <c r="AT921" s="4"/>
     </row>
-    <row r="922" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -73260,7 +73266,7 @@
       <c r="AS922" s="4"/>
       <c r="AT922" s="4"/>
     </row>
-    <row r="923" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -73308,7 +73314,7 @@
       <c r="AS923" s="4"/>
       <c r="AT923" s="4"/>
     </row>
-    <row r="924" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -73356,7 +73362,7 @@
       <c r="AS924" s="4"/>
       <c r="AT924" s="4"/>
     </row>
-    <row r="925" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -73404,7 +73410,7 @@
       <c r="AS925" s="4"/>
       <c r="AT925" s="4"/>
     </row>
-    <row r="926" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -73452,7 +73458,7 @@
       <c r="AS926" s="4"/>
       <c r="AT926" s="4"/>
     </row>
-    <row r="927" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -73500,7 +73506,7 @@
       <c r="AS927" s="4"/>
       <c r="AT927" s="4"/>
     </row>
-    <row r="928" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -73548,7 +73554,7 @@
       <c r="AS928" s="4"/>
       <c r="AT928" s="4"/>
     </row>
-    <row r="929" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -73596,7 +73602,7 @@
       <c r="AS929" s="4"/>
       <c r="AT929" s="4"/>
     </row>
-    <row r="930" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -73644,7 +73650,7 @@
       <c r="AS930" s="4"/>
       <c r="AT930" s="4"/>
     </row>
-    <row r="931" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -73692,7 +73698,7 @@
       <c r="AS931" s="4"/>
       <c r="AT931" s="4"/>
     </row>
-    <row r="932" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -73740,7 +73746,7 @@
       <c r="AS932" s="4"/>
       <c r="AT932" s="4"/>
     </row>
-    <row r="933" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -73788,7 +73794,7 @@
       <c r="AS933" s="4"/>
       <c r="AT933" s="4"/>
     </row>
-    <row r="934" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -73836,7 +73842,7 @@
       <c r="AS934" s="4"/>
       <c r="AT934" s="4"/>
     </row>
-    <row r="935" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -73884,7 +73890,7 @@
       <c r="AS935" s="4"/>
       <c r="AT935" s="4"/>
     </row>
-    <row r="936" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -73932,7 +73938,7 @@
       <c r="AS936" s="4"/>
       <c r="AT936" s="4"/>
     </row>
-    <row r="937" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -73980,7 +73986,7 @@
       <c r="AS937" s="4"/>
       <c r="AT937" s="4"/>
     </row>
-    <row r="938" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -74028,7 +74034,7 @@
       <c r="AS938" s="4"/>
       <c r="AT938" s="4"/>
     </row>
-    <row r="939" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -74076,7 +74082,7 @@
       <c r="AS939" s="4"/>
       <c r="AT939" s="4"/>
     </row>
-    <row r="940" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -74124,7 +74130,7 @@
       <c r="AS940" s="4"/>
       <c r="AT940" s="4"/>
     </row>
-    <row r="941" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -74172,7 +74178,7 @@
       <c r="AS941" s="4"/>
       <c r="AT941" s="4"/>
     </row>
-    <row r="942" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -74220,7 +74226,7 @@
       <c r="AS942" s="4"/>
       <c r="AT942" s="4"/>
     </row>
-    <row r="943" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -74268,7 +74274,7 @@
       <c r="AS943" s="4"/>
       <c r="AT943" s="4"/>
     </row>
-    <row r="944" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -74316,7 +74322,7 @@
       <c r="AS944" s="4"/>
       <c r="AT944" s="4"/>
     </row>
-    <row r="945" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -74364,7 +74370,7 @@
       <c r="AS945" s="4"/>
       <c r="AT945" s="4"/>
     </row>
-    <row r="946" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -74412,7 +74418,7 @@
       <c r="AS946" s="4"/>
       <c r="AT946" s="4"/>
     </row>
-    <row r="947" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -74460,7 +74466,7 @@
       <c r="AS947" s="4"/>
       <c r="AT947" s="4"/>
     </row>
-    <row r="948" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -74508,7 +74514,7 @@
       <c r="AS948" s="4"/>
       <c r="AT948" s="4"/>
     </row>
-    <row r="949" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -74556,7 +74562,7 @@
       <c r="AS949" s="4"/>
       <c r="AT949" s="4"/>
     </row>
-    <row r="950" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -74604,7 +74610,7 @@
       <c r="AS950" s="4"/>
       <c r="AT950" s="4"/>
     </row>
-    <row r="951" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -74652,7 +74658,7 @@
       <c r="AS951" s="4"/>
       <c r="AT951" s="4"/>
     </row>
-    <row r="952" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -74700,7 +74706,7 @@
       <c r="AS952" s="4"/>
       <c r="AT952" s="4"/>
     </row>
-    <row r="953" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -74748,7 +74754,7 @@
       <c r="AS953" s="4"/>
       <c r="AT953" s="4"/>
     </row>
-    <row r="954" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -74796,7 +74802,7 @@
       <c r="AS954" s="4"/>
       <c r="AT954" s="4"/>
     </row>
-    <row r="955" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -74844,7 +74850,7 @@
       <c r="AS955" s="4"/>
       <c r="AT955" s="4"/>
     </row>
-    <row r="956" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -74892,7 +74898,7 @@
       <c r="AS956" s="4"/>
       <c r="AT956" s="4"/>
     </row>
-    <row r="957" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -74940,7 +74946,7 @@
       <c r="AS957" s="4"/>
       <c r="AT957" s="4"/>
     </row>
-    <row r="958" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -74988,7 +74994,7 @@
       <c r="AS958" s="4"/>
       <c r="AT958" s="4"/>
     </row>
-    <row r="959" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -75036,7 +75042,7 @@
       <c r="AS959" s="4"/>
       <c r="AT959" s="4"/>
     </row>
-    <row r="960" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -75084,7 +75090,7 @@
       <c r="AS960" s="4"/>
       <c r="AT960" s="4"/>
     </row>
-    <row r="961" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -75132,7 +75138,7 @@
       <c r="AS961" s="4"/>
       <c r="AT961" s="4"/>
     </row>
-    <row r="962" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -75180,7 +75186,7 @@
       <c r="AS962" s="4"/>
       <c r="AT962" s="4"/>
     </row>
-    <row r="963" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -75228,7 +75234,7 @@
       <c r="AS963" s="4"/>
       <c r="AT963" s="4"/>
     </row>
-    <row r="964" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -75276,7 +75282,7 @@
       <c r="AS964" s="4"/>
       <c r="AT964" s="4"/>
     </row>
-    <row r="965" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -75324,7 +75330,7 @@
       <c r="AS965" s="4"/>
       <c r="AT965" s="4"/>
     </row>
-    <row r="966" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -75372,7 +75378,7 @@
       <c r="AS966" s="4"/>
       <c r="AT966" s="4"/>
     </row>
-    <row r="967" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -75420,7 +75426,7 @@
       <c r="AS967" s="4"/>
       <c r="AT967" s="4"/>
     </row>
-    <row r="968" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -75468,7 +75474,7 @@
       <c r="AS968" s="4"/>
       <c r="AT968" s="4"/>
     </row>
-    <row r="969" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -75516,7 +75522,7 @@
       <c r="AS969" s="4"/>
       <c r="AT969" s="4"/>
     </row>
-    <row r="970" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -75564,7 +75570,7 @@
       <c r="AS970" s="4"/>
       <c r="AT970" s="4"/>
     </row>
-    <row r="971" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -75612,7 +75618,7 @@
       <c r="AS971" s="4"/>
       <c r="AT971" s="4"/>
     </row>
-    <row r="972" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -75660,7 +75666,7 @@
       <c r="AS972" s="4"/>
       <c r="AT972" s="4"/>
     </row>
-    <row r="973" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -75708,7 +75714,7 @@
       <c r="AS973" s="4"/>
       <c r="AT973" s="4"/>
     </row>
-    <row r="974" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -75756,7 +75762,7 @@
       <c r="AS974" s="4"/>
       <c r="AT974" s="4"/>
     </row>
-    <row r="975" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -75804,7 +75810,7 @@
       <c r="AS975" s="4"/>
       <c r="AT975" s="4"/>
     </row>
-    <row r="976" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -75852,7 +75858,7 @@
       <c r="AS976" s="4"/>
       <c r="AT976" s="4"/>
     </row>
-    <row r="977" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -75900,7 +75906,7 @@
       <c r="AS977" s="4"/>
       <c r="AT977" s="4"/>
     </row>
-    <row r="978" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -75948,7 +75954,7 @@
       <c r="AS978" s="4"/>
       <c r="AT978" s="4"/>
     </row>
-    <row r="979" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -75996,7 +76002,7 @@
       <c r="AS979" s="4"/>
       <c r="AT979" s="4"/>
     </row>
-    <row r="980" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -76044,7 +76050,7 @@
       <c r="AS980" s="4"/>
       <c r="AT980" s="4"/>
     </row>
-    <row r="981" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -76092,7 +76098,7 @@
       <c r="AS981" s="4"/>
       <c r="AT981" s="4"/>
     </row>
-    <row r="982" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -76140,7 +76146,7 @@
       <c r="AS982" s="4"/>
       <c r="AT982" s="4"/>
     </row>
-    <row r="983" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -76188,7 +76194,7 @@
       <c r="AS983" s="4"/>
       <c r="AT983" s="4"/>
     </row>
-    <row r="984" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -76236,7 +76242,7 @@
       <c r="AS984" s="4"/>
       <c r="AT984" s="4"/>
     </row>
-    <row r="985" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -76284,7 +76290,7 @@
       <c r="AS985" s="4"/>
       <c r="AT985" s="4"/>
     </row>
-    <row r="986" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -76332,7 +76338,7 @@
       <c r="AS986" s="4"/>
       <c r="AT986" s="4"/>
     </row>
-    <row r="987" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -76380,7 +76386,7 @@
       <c r="AS987" s="4"/>
       <c r="AT987" s="4"/>
     </row>
-    <row r="988" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -76428,7 +76434,7 @@
       <c r="AS988" s="4"/>
       <c r="AT988" s="4"/>
     </row>
-    <row r="989" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -76476,7 +76482,7 @@
       <c r="AS989" s="4"/>
       <c r="AT989" s="4"/>
     </row>
-    <row r="990" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -76524,7 +76530,7 @@
       <c r="AS990" s="4"/>
       <c r="AT990" s="4"/>
     </row>
-    <row r="991" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -76572,7 +76578,7 @@
       <c r="AS991" s="4"/>
       <c r="AT991" s="4"/>
     </row>
-    <row r="992" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -76620,7 +76626,7 @@
       <c r="AS992" s="4"/>
       <c r="AT992" s="4"/>
     </row>
-    <row r="993" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -76668,7 +76674,7 @@
       <c r="AS993" s="4"/>
       <c r="AT993" s="4"/>
     </row>
-    <row r="994" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -76716,7 +76722,7 @@
       <c r="AS994" s="4"/>
       <c r="AT994" s="4"/>
     </row>
-    <row r="995" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -76764,7 +76770,7 @@
       <c r="AS995" s="4"/>
       <c r="AT995" s="4"/>
     </row>
-    <row r="996" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -76812,7 +76818,7 @@
       <c r="AS996" s="4"/>
       <c r="AT996" s="4"/>
     </row>
-    <row r="997" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -76860,7 +76866,7 @@
       <c r="AS997" s="4"/>
       <c r="AT997" s="4"/>
     </row>
-    <row r="998" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -76908,7 +76914,7 @@
       <c r="AS998" s="4"/>
       <c r="AT998" s="4"/>
     </row>
-    <row r="999" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -76956,7 +76962,7 @@
       <c r="AS999" s="4"/>
       <c r="AT999" s="4"/>
     </row>
-    <row r="1000" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
@@ -77004,7 +77010,7 @@
       <c r="AS1000" s="4"/>
       <c r="AT1000" s="4"/>
     </row>
-    <row r="1001" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1001" s="4"/>
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
@@ -77052,7 +77058,7 @@
       <c r="AS1001" s="4"/>
       <c r="AT1001" s="4"/>
     </row>
-    <row r="1002" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1002" s="4"/>
       <c r="B1002" s="4"/>
       <c r="C1002" s="4"/>
@@ -77100,7 +77106,7 @@
       <c r="AS1002" s="4"/>
       <c r="AT1002" s="4"/>
     </row>
-    <row r="1003" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1003" s="4"/>
       <c r="B1003" s="4"/>
       <c r="C1003" s="4"/>
@@ -77148,7 +77154,7 @@
       <c r="AS1003" s="4"/>
       <c r="AT1003" s="4"/>
     </row>
-    <row r="1004" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1004" s="4"/>
       <c r="B1004" s="4"/>
       <c r="C1004" s="4"/>

--- a/schema/CFM5.3.2/doc/CFM5.3_Metadata.xlsx
+++ b/schema/CFM5.3.2/doc/CFM5.3_Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07179A-D47A-DE43-B859-8EF766EBE16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BE98FA-89AD-1840-A01F-D9CC339C6B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="47940" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11560" yWindow="3520" windowWidth="47940" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFM5.3_Metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7053" uniqueCount="2338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7055" uniqueCount="2339">
   <si>
     <t>CFM5.3 Fault Object Name</t>
   </si>
@@ -7039,6 +7039,9 @@
   </si>
   <si>
     <t>is mapped</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -7576,10 +7579,10 @@
   <dimension ref="A1:AT1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M308" sqref="M308"/>
+      <selection pane="bottomRight" activeCell="M365" sqref="M365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42240,7 +42243,9 @@
       <c r="L364" s="4" t="s">
         <v>1877</v>
       </c>
-      <c r="M364" s="16"/>
+      <c r="M364" s="16" t="s">
+        <v>2338</v>
+      </c>
       <c r="N364" s="15">
         <v>1</v>
       </c>
@@ -42334,7 +42339,9 @@
       <c r="L365" s="4" t="s">
         <v>1880</v>
       </c>
-      <c r="M365" s="16"/>
+      <c r="M365" s="16" t="s">
+        <v>2338</v>
+      </c>
       <c r="N365" s="15">
         <v>1</v>
       </c>
